--- a/Algorithm_Comparison.xlsx
+++ b/Algorithm_Comparison.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D12A8E0-AEED-4F32-8F33-B23D76587581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD70F2AC-A13A-46BE-8296-F8B66D70E62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9FC1A8C1-2051-4B9D-AD03-C4C9BF31E6D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9FC1A8C1-2051-4B9D-AD03-C4C9BF31E6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm Details" sheetId="1" r:id="rId1"/>
@@ -42,23 +42,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Free Open Source Software</t>
+          <t>Free Open Source Software</t>
         </r>
       </text>
     </comment>
@@ -762,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="378">
   <si>
     <t>SLAM Algorithm</t>
   </si>
@@ -2742,6 +2731,9 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>MapLab</t>
+  </si>
 </sst>
 </file>
 
@@ -3668,6 +3660,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3677,14 +3678,50 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3707,12 +3744,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3725,73 +3756,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3800,53 +3780,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3863,9 +3807,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3881,11 +3822,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5136,7 +5128,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5166,28 +5158,28 @@
       <c r="B1" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="180" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="165" t="s">
+      <c r="D1" s="181"/>
+      <c r="E1" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="176"/>
+      <c r="F1" s="189"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="37"/>
-      <c r="J1" s="173" t="s">
+      <c r="J1" s="169" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="188" t="s">
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
       <c r="Q1" s="37"/>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
@@ -5195,8 +5187,8 @@
       <c r="U1" s="37"/>
       <c r="V1" s="37"/>
       <c r="W1" s="36"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
       <c r="Z1" s="36"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="36"/>
@@ -5206,28 +5198,28 @@
       <c r="B2" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="165" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="180" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="176"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
       <c r="I2" s="37"/>
-      <c r="J2" s="173" t="s">
+      <c r="J2" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="189" t="s">
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="170" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
@@ -5243,18 +5235,18 @@
       <c r="AC2" s="36"/>
     </row>
     <row r="3" spans="1:43" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="169" t="s">
+      <c r="C3" s="184"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="M3" s="191" t="s">
+      <c r="F3" s="190"/>
+      <c r="M3" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
       <c r="T3" s="53"/>
       <c r="U3" s="53"/>
       <c r="V3" s="53"/>
@@ -5274,89 +5266,89 @@
       <c r="AQ3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="159" t="s">
+      <c r="A4" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="186" t="s">
         <v>332</v>
       </c>
-      <c r="E4" s="162" t="s">
+      <c r="E4" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="174" t="s">
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="187" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="174" t="s">
+      <c r="K4" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="161" t="s">
+      <c r="L4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="161" t="s">
+      <c r="M4" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="161" t="s">
+      <c r="N4" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="187" t="s">
+      <c r="O4" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="185" t="s">
+      <c r="P4" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="193" t="s">
+      <c r="Q4" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="193" t="s">
+      <c r="R4" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="193" t="s">
+      <c r="S4" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="183" t="s">
+      <c r="T4" s="160" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="183" t="s">
+      <c r="U4" s="160" t="s">
         <v>178</v>
       </c>
-      <c r="V4" s="183" t="s">
+      <c r="V4" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="W4" s="159" t="s">
+      <c r="W4" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="180" t="s">
+      <c r="X4" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="Y4" s="181"/>
-      <c r="Z4" s="159" t="s">
+      <c r="Y4" s="179"/>
+      <c r="Z4" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="179" t="s">
+      <c r="AA4" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="159" t="s">
+      <c r="AB4" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="178" t="s">
+      <c r="AC4" s="175" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="172"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
@@ -5372,30 +5364,30 @@
       <c r="I5" s="148" t="s">
         <v>333</v>
       </c>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="193"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="160"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="32" t="s">
         <v>145</v>
       </c>
       <c r="Y5" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="172"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="178"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="177"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="175"/>
     </row>
     <row r="6" spans="1:43" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -5569,75 +5561,75 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="77" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:43" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="80" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="69" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69" t="s">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="69" t="s">
+      <c r="S8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="74" t="s">
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="8">
         <f ca="1">YEAR(TODAY())-YEAR(Y8)</f>
         <v>1</v>
       </c>
-      <c r="Y8" s="75">
+      <c r="Y8" s="43">
         <v>45095</v>
       </c>
-      <c r="Z8" s="70" t="s">
+      <c r="Z8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA8" s="70" t="s">
+      <c r="AA8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="76" t="s">
+      <c r="AB8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AC8" s="76" t="s">
+      <c r="AC8" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8043,6 +8035,27 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="X4:Y4"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="W4:W5"/>
@@ -8058,27 +8071,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <conditionalFormatting sqref="X6:X1048576">
     <cfRule type="cellIs" dxfId="152" priority="1" operator="greaterThan">
@@ -8127,9 +8119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A15A90-0E97-4AD0-9075-84428FC6AC9E}">
   <dimension ref="A1:GV272"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G100" sqref="G100"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8162,442 +8154,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:153" x14ac:dyDescent="0.25">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="230" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="U1" s="177" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="U1" s="190" t="s">
         <v>275</v>
       </c>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AQ1" s="177" t="s">
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AQ1" s="190" t="s">
         <v>275</v>
       </c>
-      <c r="AR1" s="177"/>
-      <c r="AS1" s="177"/>
-      <c r="AT1" s="177"/>
-      <c r="AU1" s="177"/>
-      <c r="AV1" s="177"/>
-      <c r="AW1" s="177"/>
-      <c r="AX1" s="177"/>
-      <c r="AY1" s="177"/>
-      <c r="AZ1" s="177"/>
-      <c r="BA1" s="177"/>
-      <c r="DV1" s="230" t="s">
+      <c r="AR1" s="190"/>
+      <c r="AS1" s="190"/>
+      <c r="AT1" s="190"/>
+      <c r="AU1" s="190"/>
+      <c r="AV1" s="190"/>
+      <c r="AW1" s="190"/>
+      <c r="AX1" s="190"/>
+      <c r="AY1" s="190"/>
+      <c r="AZ1" s="190"/>
+      <c r="BA1" s="190"/>
+      <c r="DV1" s="194" t="s">
         <v>364</v>
       </c>
-      <c r="DW1" s="230"/>
-      <c r="DX1" s="230"/>
-      <c r="DY1" s="230"/>
-      <c r="DZ1" s="230"/>
-      <c r="EA1" s="230"/>
-      <c r="EB1" s="230"/>
-      <c r="EC1" s="230"/>
-      <c r="ED1" s="230"/>
-      <c r="EE1" s="230"/>
-      <c r="EF1" s="230"/>
-      <c r="EG1" s="230"/>
-      <c r="EH1" s="230"/>
-      <c r="EI1" s="177" t="s">
+      <c r="DW1" s="194"/>
+      <c r="DX1" s="194"/>
+      <c r="DY1" s="194"/>
+      <c r="DZ1" s="194"/>
+      <c r="EA1" s="194"/>
+      <c r="EB1" s="194"/>
+      <c r="EC1" s="194"/>
+      <c r="ED1" s="194"/>
+      <c r="EE1" s="194"/>
+      <c r="EF1" s="194"/>
+      <c r="EG1" s="194"/>
+      <c r="EH1" s="194"/>
+      <c r="EI1" s="190" t="s">
         <v>275</v>
       </c>
-      <c r="EJ1" s="177"/>
-      <c r="EK1" s="177"/>
-      <c r="EL1" s="177"/>
-      <c r="EM1" s="177"/>
-      <c r="EN1" s="177"/>
-      <c r="EO1" s="177"/>
-      <c r="EP1" s="177"/>
-      <c r="EQ1" s="177"/>
-      <c r="ER1" s="177"/>
-      <c r="ES1" s="177"/>
+      <c r="EJ1" s="190"/>
+      <c r="EK1" s="190"/>
+      <c r="EL1" s="190"/>
+      <c r="EM1" s="190"/>
+      <c r="EN1" s="190"/>
+      <c r="EO1" s="190"/>
+      <c r="EP1" s="190"/>
+      <c r="EQ1" s="190"/>
+      <c r="ER1" s="190"/>
+      <c r="ES1" s="190"/>
     </row>
     <row r="2" spans="1:153" x14ac:dyDescent="0.25">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="208" t="s">
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="195" t="s">
         <v>274</v>
       </c>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208" t="s">
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195" t="s">
         <v>274</v>
       </c>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="208" t="s">
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195" t="s">
         <v>274</v>
       </c>
-      <c r="AG2" s="208"/>
-      <c r="AH2" s="208"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="208"/>
-      <c r="AK2" s="208"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="208"/>
-      <c r="AN2" s="208"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="208"/>
-      <c r="AQ2" s="208" t="s">
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="208"/>
-      <c r="AT2" s="208"/>
-      <c r="AU2" s="208"/>
-      <c r="AV2" s="208"/>
-      <c r="AW2" s="208"/>
-      <c r="AX2" s="208"/>
-      <c r="AY2" s="208"/>
-      <c r="AZ2" s="208"/>
-      <c r="BA2" s="208"/>
-      <c r="BB2" s="208" t="s">
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="BC2" s="208"/>
-      <c r="BD2" s="208"/>
-      <c r="BE2" s="208"/>
-      <c r="BF2" s="208"/>
-      <c r="BG2" s="208"/>
-      <c r="BH2" s="208"/>
-      <c r="BI2" s="208"/>
-      <c r="BJ2" s="208"/>
-      <c r="BK2" s="208"/>
-      <c r="BL2" s="208"/>
-      <c r="BM2" s="208"/>
-      <c r="BN2" s="208" t="s">
+      <c r="BC2" s="195"/>
+      <c r="BD2" s="195"/>
+      <c r="BE2" s="195"/>
+      <c r="BF2" s="195"/>
+      <c r="BG2" s="195"/>
+      <c r="BH2" s="195"/>
+      <c r="BI2" s="195"/>
+      <c r="BJ2" s="195"/>
+      <c r="BK2" s="195"/>
+      <c r="BL2" s="195"/>
+      <c r="BM2" s="195"/>
+      <c r="BN2" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="BO2" s="208"/>
-      <c r="BP2" s="208"/>
-      <c r="BQ2" s="208"/>
-      <c r="BR2" s="208"/>
-      <c r="BS2" s="208"/>
-      <c r="BT2" s="208"/>
-      <c r="BU2" s="208"/>
-      <c r="BV2" s="208"/>
-      <c r="BW2" s="208"/>
-      <c r="BX2" s="208"/>
-      <c r="BY2" s="208"/>
-      <c r="BZ2" s="208"/>
-      <c r="CA2" s="208"/>
-      <c r="CB2" s="208"/>
-      <c r="CC2" s="208"/>
-      <c r="CD2" s="201" t="s">
+      <c r="BO2" s="195"/>
+      <c r="BP2" s="195"/>
+      <c r="BQ2" s="195"/>
+      <c r="BR2" s="195"/>
+      <c r="BS2" s="195"/>
+      <c r="BT2" s="195"/>
+      <c r="BU2" s="195"/>
+      <c r="BV2" s="195"/>
+      <c r="BW2" s="195"/>
+      <c r="BX2" s="195"/>
+      <c r="BY2" s="195"/>
+      <c r="BZ2" s="195"/>
+      <c r="CA2" s="195"/>
+      <c r="CB2" s="195"/>
+      <c r="CC2" s="195"/>
+      <c r="CD2" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="CE2" s="202"/>
-      <c r="CF2" s="202"/>
-      <c r="CG2" s="202"/>
-      <c r="CH2" s="202"/>
-      <c r="CI2" s="202"/>
-      <c r="CJ2" s="202"/>
-      <c r="CK2" s="202"/>
-      <c r="CL2" s="202"/>
-      <c r="CM2" s="202"/>
-      <c r="CN2" s="202"/>
-      <c r="CO2" s="202"/>
-      <c r="CP2" s="202"/>
-      <c r="CQ2" s="202"/>
-      <c r="CR2" s="202"/>
-      <c r="CS2" s="202"/>
-      <c r="CT2" s="202"/>
-      <c r="CU2" s="202"/>
-      <c r="CV2" s="202"/>
-      <c r="CW2" s="202"/>
-      <c r="CX2" s="208" t="s">
+      <c r="CE2" s="198"/>
+      <c r="CF2" s="198"/>
+      <c r="CG2" s="198"/>
+      <c r="CH2" s="198"/>
+      <c r="CI2" s="198"/>
+      <c r="CJ2" s="198"/>
+      <c r="CK2" s="198"/>
+      <c r="CL2" s="198"/>
+      <c r="CM2" s="198"/>
+      <c r="CN2" s="198"/>
+      <c r="CO2" s="198"/>
+      <c r="CP2" s="198"/>
+      <c r="CQ2" s="198"/>
+      <c r="CR2" s="198"/>
+      <c r="CS2" s="198"/>
+      <c r="CT2" s="198"/>
+      <c r="CU2" s="198"/>
+      <c r="CV2" s="198"/>
+      <c r="CW2" s="198"/>
+      <c r="CX2" s="195" t="s">
         <v>248</v>
       </c>
-      <c r="CY2" s="208"/>
-      <c r="CZ2" s="208"/>
-      <c r="DA2" s="208"/>
-      <c r="DB2" s="208"/>
-      <c r="DC2" s="208"/>
-      <c r="DD2" s="208"/>
-      <c r="DE2" s="208"/>
-      <c r="DF2" s="208"/>
-      <c r="DG2" s="208"/>
-      <c r="DH2" s="208"/>
-      <c r="DI2" s="208"/>
-      <c r="DJ2" s="208"/>
-      <c r="DK2" s="208"/>
-      <c r="DL2" s="208"/>
-      <c r="DM2" s="208"/>
-      <c r="DN2" s="208"/>
-      <c r="DO2" s="208"/>
-      <c r="DP2" s="208"/>
-      <c r="DQ2" s="208"/>
-      <c r="DR2" s="208"/>
-      <c r="DS2" s="208"/>
-      <c r="DT2" s="208"/>
-      <c r="DU2" s="208"/>
-      <c r="DV2" s="217" t="s">
+      <c r="CY2" s="195"/>
+      <c r="CZ2" s="195"/>
+      <c r="DA2" s="195"/>
+      <c r="DB2" s="195"/>
+      <c r="DC2" s="195"/>
+      <c r="DD2" s="195"/>
+      <c r="DE2" s="195"/>
+      <c r="DF2" s="195"/>
+      <c r="DG2" s="195"/>
+      <c r="DH2" s="195"/>
+      <c r="DI2" s="195"/>
+      <c r="DJ2" s="195"/>
+      <c r="DK2" s="195"/>
+      <c r="DL2" s="195"/>
+      <c r="DM2" s="195"/>
+      <c r="DN2" s="195"/>
+      <c r="DO2" s="195"/>
+      <c r="DP2" s="195"/>
+      <c r="DQ2" s="195"/>
+      <c r="DR2" s="195"/>
+      <c r="DS2" s="195"/>
+      <c r="DT2" s="195"/>
+      <c r="DU2" s="195"/>
+      <c r="DV2" s="216" t="s">
         <v>363</v>
       </c>
-      <c r="DW2" s="218"/>
-      <c r="DX2" s="218"/>
-      <c r="DY2" s="218"/>
-      <c r="DZ2" s="218"/>
-      <c r="EA2" s="218"/>
-      <c r="EB2" s="218"/>
-      <c r="EC2" s="218"/>
-      <c r="ED2" s="218"/>
-      <c r="EE2" s="218"/>
-      <c r="EF2" s="218"/>
-      <c r="EG2" s="218"/>
-      <c r="EH2" s="218"/>
+      <c r="DW2" s="217"/>
+      <c r="DX2" s="217"/>
+      <c r="DY2" s="217"/>
+      <c r="DZ2" s="217"/>
+      <c r="EA2" s="217"/>
+      <c r="EB2" s="217"/>
+      <c r="EC2" s="217"/>
+      <c r="ED2" s="217"/>
+      <c r="EE2" s="217"/>
+      <c r="EF2" s="217"/>
+      <c r="EG2" s="217"/>
+      <c r="EH2" s="217"/>
       <c r="EI2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="208" t="s">
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="208" t="s">
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="208" t="s">
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="V3" s="208"/>
-      <c r="W3" s="208"/>
-      <c r="X3" s="208"/>
-      <c r="Y3" s="208"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="208"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="208" t="s">
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="AG3" s="208"/>
-      <c r="AH3" s="208"/>
-      <c r="AI3" s="208"/>
-      <c r="AJ3" s="208"/>
-      <c r="AK3" s="208"/>
-      <c r="AL3" s="208"/>
-      <c r="AM3" s="208"/>
-      <c r="AN3" s="208"/>
-      <c r="AO3" s="208"/>
-      <c r="AP3" s="208"/>
-      <c r="AQ3" s="208" t="s">
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="195"/>
+      <c r="AJ3" s="195"/>
+      <c r="AK3" s="195"/>
+      <c r="AL3" s="195"/>
+      <c r="AM3" s="195"/>
+      <c r="AN3" s="195"/>
+      <c r="AO3" s="195"/>
+      <c r="AP3" s="195"/>
+      <c r="AQ3" s="195" t="s">
         <v>99</v>
       </c>
-      <c r="AR3" s="208"/>
-      <c r="AS3" s="208"/>
-      <c r="AT3" s="208"/>
-      <c r="AU3" s="208"/>
-      <c r="AV3" s="208"/>
-      <c r="AW3" s="208"/>
-      <c r="AX3" s="208"/>
-      <c r="AY3" s="208"/>
-      <c r="AZ3" s="208"/>
-      <c r="BA3" s="208"/>
-      <c r="BB3" s="208" t="s">
+      <c r="AR3" s="195"/>
+      <c r="AS3" s="195"/>
+      <c r="AT3" s="195"/>
+      <c r="AU3" s="195"/>
+      <c r="AV3" s="195"/>
+      <c r="AW3" s="195"/>
+      <c r="AX3" s="195"/>
+      <c r="AY3" s="195"/>
+      <c r="AZ3" s="195"/>
+      <c r="BA3" s="195"/>
+      <c r="BB3" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="BC3" s="208"/>
-      <c r="BD3" s="208"/>
-      <c r="BE3" s="208"/>
-      <c r="BF3" s="208" t="s">
+      <c r="BC3" s="195"/>
+      <c r="BD3" s="195"/>
+      <c r="BE3" s="195"/>
+      <c r="BF3" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="BG3" s="208"/>
-      <c r="BH3" s="208"/>
-      <c r="BI3" s="208"/>
-      <c r="BJ3" s="208" t="s">
+      <c r="BG3" s="195"/>
+      <c r="BH3" s="195"/>
+      <c r="BI3" s="195"/>
+      <c r="BJ3" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="BK3" s="208"/>
-      <c r="BL3" s="208"/>
-      <c r="BM3" s="208"/>
-      <c r="BN3" s="208" t="s">
+      <c r="BK3" s="195"/>
+      <c r="BL3" s="195"/>
+      <c r="BM3" s="195"/>
+      <c r="BN3" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="BO3" s="208"/>
-      <c r="BP3" s="208"/>
-      <c r="BQ3" s="208"/>
-      <c r="BR3" s="208" t="s">
+      <c r="BO3" s="195"/>
+      <c r="BP3" s="195"/>
+      <c r="BQ3" s="195"/>
+      <c r="BR3" s="195" t="s">
         <v>107</v>
       </c>
-      <c r="BS3" s="208"/>
-      <c r="BT3" s="208"/>
-      <c r="BU3" s="208"/>
-      <c r="BV3" s="208" t="s">
+      <c r="BS3" s="195"/>
+      <c r="BT3" s="195"/>
+      <c r="BU3" s="195"/>
+      <c r="BV3" s="195" t="s">
         <v>108</v>
       </c>
-      <c r="BW3" s="208"/>
-      <c r="BX3" s="208"/>
-      <c r="BY3" s="208"/>
-      <c r="BZ3" s="208" t="s">
+      <c r="BW3" s="195"/>
+      <c r="BX3" s="195"/>
+      <c r="BY3" s="195"/>
+      <c r="BZ3" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="CA3" s="208"/>
-      <c r="CB3" s="208"/>
-      <c r="CC3" s="208"/>
-      <c r="CD3" s="208" t="s">
+      <c r="CA3" s="195"/>
+      <c r="CB3" s="195"/>
+      <c r="CC3" s="195"/>
+      <c r="CD3" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="CE3" s="208"/>
-      <c r="CF3" s="208"/>
-      <c r="CG3" s="208"/>
-      <c r="CH3" s="208" t="s">
+      <c r="CE3" s="195"/>
+      <c r="CF3" s="195"/>
+      <c r="CG3" s="195"/>
+      <c r="CH3" s="195" t="s">
         <v>112</v>
       </c>
-      <c r="CI3" s="208"/>
-      <c r="CJ3" s="208"/>
-      <c r="CK3" s="208"/>
-      <c r="CL3" s="208" t="s">
+      <c r="CI3" s="195"/>
+      <c r="CJ3" s="195"/>
+      <c r="CK3" s="195"/>
+      <c r="CL3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="CM3" s="208"/>
-      <c r="CN3" s="208"/>
-      <c r="CO3" s="208"/>
-      <c r="CP3" s="208" t="s">
+      <c r="CM3" s="195"/>
+      <c r="CN3" s="195"/>
+      <c r="CO3" s="195"/>
+      <c r="CP3" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="CQ3" s="208"/>
-      <c r="CR3" s="208"/>
-      <c r="CS3" s="208"/>
-      <c r="CT3" s="208" t="s">
+      <c r="CQ3" s="195"/>
+      <c r="CR3" s="195"/>
+      <c r="CS3" s="195"/>
+      <c r="CT3" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="CU3" s="208"/>
-      <c r="CV3" s="208"/>
-      <c r="CW3" s="224"/>
-      <c r="CX3" s="208" t="s">
+      <c r="CU3" s="195"/>
+      <c r="CV3" s="195"/>
+      <c r="CW3" s="196"/>
+      <c r="CX3" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="CY3" s="208"/>
-      <c r="CZ3" s="208"/>
-      <c r="DA3" s="208"/>
-      <c r="DB3" s="208"/>
-      <c r="DC3" s="208"/>
-      <c r="DD3" s="208"/>
-      <c r="DE3" s="208"/>
-      <c r="DF3" s="208"/>
-      <c r="DG3" s="208"/>
-      <c r="DH3" s="208"/>
-      <c r="DI3" s="208"/>
-      <c r="DJ3" s="208" t="s">
+      <c r="CY3" s="195"/>
+      <c r="CZ3" s="195"/>
+      <c r="DA3" s="195"/>
+      <c r="DB3" s="195"/>
+      <c r="DC3" s="195"/>
+      <c r="DD3" s="195"/>
+      <c r="DE3" s="195"/>
+      <c r="DF3" s="195"/>
+      <c r="DG3" s="195"/>
+      <c r="DH3" s="195"/>
+      <c r="DI3" s="195"/>
+      <c r="DJ3" s="195" t="s">
         <v>189</v>
       </c>
-      <c r="DK3" s="208"/>
-      <c r="DL3" s="208"/>
-      <c r="DM3" s="208"/>
-      <c r="DN3" s="208"/>
-      <c r="DO3" s="208"/>
-      <c r="DP3" s="208"/>
-      <c r="DQ3" s="208"/>
-      <c r="DR3" s="208"/>
-      <c r="DS3" s="208"/>
-      <c r="DT3" s="208"/>
-      <c r="DU3" s="208"/>
-      <c r="DV3" s="231" t="s">
+      <c r="DK3" s="195"/>
+      <c r="DL3" s="195"/>
+      <c r="DM3" s="195"/>
+      <c r="DN3" s="195"/>
+      <c r="DO3" s="195"/>
+      <c r="DP3" s="195"/>
+      <c r="DQ3" s="195"/>
+      <c r="DR3" s="195"/>
+      <c r="DS3" s="195"/>
+      <c r="DT3" s="195"/>
+      <c r="DU3" s="195"/>
+      <c r="DV3" s="200" t="s">
         <v>261</v>
       </c>
-      <c r="DW3" s="231"/>
-      <c r="DX3" s="231"/>
-      <c r="DY3" s="231"/>
-      <c r="DZ3" s="231"/>
-      <c r="EA3" s="231"/>
-      <c r="EB3" s="231"/>
-      <c r="EC3" s="231"/>
-      <c r="ED3" s="231"/>
-      <c r="EE3" s="231"/>
-      <c r="EF3" s="231"/>
-      <c r="EG3" s="231"/>
-      <c r="EH3" s="231"/>
-      <c r="EI3" s="212"/>
-      <c r="EJ3" s="212"/>
-      <c r="EK3" s="212"/>
-      <c r="EL3" s="212"/>
-      <c r="EM3" s="212"/>
-      <c r="EN3" s="212"/>
-      <c r="EO3" s="212"/>
+      <c r="DW3" s="200"/>
+      <c r="DX3" s="200"/>
+      <c r="DY3" s="200"/>
+      <c r="DZ3" s="200"/>
+      <c r="EA3" s="200"/>
+      <c r="EB3" s="200"/>
+      <c r="EC3" s="200"/>
+      <c r="ED3" s="200"/>
+      <c r="EE3" s="200"/>
+      <c r="EF3" s="200"/>
+      <c r="EG3" s="200"/>
+      <c r="EH3" s="200"/>
+      <c r="EI3" s="221"/>
+      <c r="EJ3" s="221"/>
+      <c r="EK3" s="221"/>
+      <c r="EL3" s="221"/>
+      <c r="EM3" s="221"/>
+      <c r="EN3" s="221"/>
+      <c r="EO3" s="221"/>
     </row>
     <row r="4" spans="1:153" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="208" t="s">
+      <c r="A4" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208" t="s">
+      <c r="C4" s="195"/>
+      <c r="D4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208" t="s">
+      <c r="E4" s="195"/>
+      <c r="F4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208" t="s">
+      <c r="G4" s="195"/>
+      <c r="H4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="224"/>
+      <c r="I4" s="196"/>
       <c r="J4" s="25" t="s">
         <v>82</v>
       </c>
@@ -8730,187 +8722,187 @@
       <c r="BA4" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="BB4" s="208" t="s">
+      <c r="BB4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="BC4" s="208"/>
-      <c r="BD4" s="208" t="s">
+      <c r="BC4" s="195"/>
+      <c r="BD4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BE4" s="208"/>
-      <c r="BF4" s="208" t="s">
+      <c r="BE4" s="195"/>
+      <c r="BF4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="BG4" s="208"/>
-      <c r="BH4" s="208" t="s">
+      <c r="BG4" s="195"/>
+      <c r="BH4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BI4" s="208"/>
-      <c r="BJ4" s="208" t="s">
+      <c r="BI4" s="195"/>
+      <c r="BJ4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="BK4" s="208"/>
-      <c r="BL4" s="208" t="s">
+      <c r="BK4" s="195"/>
+      <c r="BL4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BM4" s="208"/>
-      <c r="BN4" s="208" t="s">
+      <c r="BM4" s="195"/>
+      <c r="BN4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="BO4" s="208"/>
-      <c r="BP4" s="208" t="s">
+      <c r="BO4" s="195"/>
+      <c r="BP4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BQ4" s="208"/>
-      <c r="BR4" s="208" t="s">
+      <c r="BQ4" s="195"/>
+      <c r="BR4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="BS4" s="208"/>
-      <c r="BT4" s="208" t="s">
+      <c r="BS4" s="195"/>
+      <c r="BT4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BU4" s="208"/>
-      <c r="BV4" s="208" t="s">
+      <c r="BU4" s="195"/>
+      <c r="BV4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="BW4" s="208"/>
-      <c r="BX4" s="208" t="s">
+      <c r="BW4" s="195"/>
+      <c r="BX4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BY4" s="208"/>
-      <c r="BZ4" s="208" t="s">
+      <c r="BY4" s="195"/>
+      <c r="BZ4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="CA4" s="208"/>
-      <c r="CB4" s="208" t="s">
+      <c r="CA4" s="195"/>
+      <c r="CB4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="CC4" s="208"/>
-      <c r="CD4" s="208" t="s">
+      <c r="CC4" s="195"/>
+      <c r="CD4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="CE4" s="208"/>
-      <c r="CF4" s="208" t="s">
+      <c r="CE4" s="195"/>
+      <c r="CF4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="CG4" s="208"/>
-      <c r="CH4" s="208" t="s">
+      <c r="CG4" s="195"/>
+      <c r="CH4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="CI4" s="208"/>
-      <c r="CJ4" s="208" t="s">
+      <c r="CI4" s="195"/>
+      <c r="CJ4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="CK4" s="208"/>
-      <c r="CL4" s="208" t="s">
+      <c r="CK4" s="195"/>
+      <c r="CL4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="CM4" s="208"/>
-      <c r="CN4" s="208" t="s">
+      <c r="CM4" s="195"/>
+      <c r="CN4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="CO4" s="208"/>
-      <c r="CP4" s="208" t="s">
+      <c r="CO4" s="195"/>
+      <c r="CP4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="CQ4" s="208"/>
-      <c r="CR4" s="208" t="s">
+      <c r="CQ4" s="195"/>
+      <c r="CR4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="CS4" s="208"/>
-      <c r="CT4" s="208" t="s">
+      <c r="CS4" s="195"/>
+      <c r="CT4" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="CU4" s="208"/>
-      <c r="CV4" s="208" t="s">
+      <c r="CU4" s="195"/>
+      <c r="CV4" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="CW4" s="208"/>
-      <c r="CX4" s="208" t="s">
+      <c r="CW4" s="195"/>
+      <c r="CX4" s="195" t="s">
         <v>182</v>
       </c>
-      <c r="CY4" s="208"/>
-      <c r="CZ4" s="208" t="s">
+      <c r="CY4" s="195"/>
+      <c r="CZ4" s="195" t="s">
         <v>183</v>
       </c>
-      <c r="DA4" s="208"/>
-      <c r="DB4" s="208" t="s">
+      <c r="DA4" s="195"/>
+      <c r="DB4" s="195" t="s">
         <v>184</v>
       </c>
-      <c r="DC4" s="208"/>
-      <c r="DD4" s="208" t="s">
+      <c r="DC4" s="195"/>
+      <c r="DD4" s="195" t="s">
         <v>185</v>
       </c>
-      <c r="DE4" s="208"/>
-      <c r="DF4" s="208" t="s">
+      <c r="DE4" s="195"/>
+      <c r="DF4" s="195" t="s">
         <v>186</v>
       </c>
-      <c r="DG4" s="208"/>
-      <c r="DH4" s="208" t="s">
+      <c r="DG4" s="195"/>
+      <c r="DH4" s="195" t="s">
         <v>187</v>
       </c>
-      <c r="DI4" s="208"/>
-      <c r="DJ4" s="208" t="s">
+      <c r="DI4" s="195"/>
+      <c r="DJ4" s="195" t="s">
         <v>182</v>
       </c>
-      <c r="DK4" s="208"/>
-      <c r="DL4" s="208" t="s">
+      <c r="DK4" s="195"/>
+      <c r="DL4" s="195" t="s">
         <v>183</v>
       </c>
-      <c r="DM4" s="208"/>
-      <c r="DN4" s="208" t="s">
+      <c r="DM4" s="195"/>
+      <c r="DN4" s="195" t="s">
         <v>184</v>
       </c>
-      <c r="DO4" s="208"/>
-      <c r="DP4" s="208" t="s">
+      <c r="DO4" s="195"/>
+      <c r="DP4" s="195" t="s">
         <v>185</v>
       </c>
-      <c r="DQ4" s="208"/>
-      <c r="DR4" s="208" t="s">
+      <c r="DQ4" s="195"/>
+      <c r="DR4" s="195" t="s">
         <v>186</v>
       </c>
-      <c r="DS4" s="208"/>
-      <c r="DT4" s="208" t="s">
+      <c r="DS4" s="195"/>
+      <c r="DT4" s="195" t="s">
         <v>187</v>
       </c>
-      <c r="DU4" s="208"/>
-      <c r="DV4" s="215" t="s">
+      <c r="DU4" s="195"/>
+      <c r="DV4" s="224" t="s">
         <v>260</v>
       </c>
-      <c r="DW4" s="216"/>
-      <c r="DX4" s="216"/>
-      <c r="DY4" s="216"/>
-      <c r="DZ4" s="216"/>
-      <c r="EA4" s="216" t="s">
+      <c r="DW4" s="199"/>
+      <c r="DX4" s="199"/>
+      <c r="DY4" s="199"/>
+      <c r="DZ4" s="199"/>
+      <c r="EA4" s="199" t="s">
         <v>269</v>
       </c>
-      <c r="EB4" s="216"/>
-      <c r="EC4" s="216"/>
-      <c r="ED4" s="216" t="s">
+      <c r="EB4" s="199"/>
+      <c r="EC4" s="199"/>
+      <c r="ED4" s="199" t="s">
         <v>268</v>
       </c>
-      <c r="EE4" s="216"/>
-      <c r="EF4" s="216"/>
-      <c r="EG4" s="213" t="s">
+      <c r="EE4" s="199"/>
+      <c r="EF4" s="199"/>
+      <c r="EG4" s="222" t="s">
         <v>267</v>
       </c>
-      <c r="EH4" s="214"/>
-      <c r="EI4" s="194" t="s">
+      <c r="EH4" s="223"/>
+      <c r="EI4" s="231" t="s">
         <v>281</v>
       </c>
-      <c r="EJ4" s="195"/>
-      <c r="EK4" s="195"/>
-      <c r="EL4" s="195"/>
-      <c r="EM4" s="195"/>
-      <c r="EN4" s="195"/>
-      <c r="EO4" s="195"/>
-      <c r="EP4" s="195"/>
-      <c r="EQ4" s="195"/>
-      <c r="ER4" s="195"/>
-      <c r="ES4" s="195"/>
+      <c r="EJ4" s="228"/>
+      <c r="EK4" s="228"/>
+      <c r="EL4" s="228"/>
+      <c r="EM4" s="228"/>
+      <c r="EN4" s="228"/>
+      <c r="EO4" s="228"/>
+      <c r="EP4" s="228"/>
+      <c r="EQ4" s="228"/>
+      <c r="ER4" s="228"/>
+      <c r="ES4" s="228"/>
     </row>
     <row r="5" spans="1:153" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
@@ -9809,8 +9801,8 @@
       <c r="EW7" s="118"/>
     </row>
     <row r="8" spans="1:153" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
-        <v>141</v>
+      <c r="A8" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="B8" s="122">
         <v>0.3</v>
@@ -25900,138 +25892,138 @@
       <c r="A102" s="93"/>
       <c r="B102" s="6"/>
       <c r="Z102" s="86"/>
-      <c r="AA102" s="195" t="s">
+      <c r="AA102" s="228" t="s">
         <v>277</v>
       </c>
-      <c r="AB102" s="195"/>
-      <c r="AC102" s="195"/>
-      <c r="AD102" s="195"/>
+      <c r="AB102" s="228"/>
+      <c r="AC102" s="228"/>
+      <c r="AD102" s="228"/>
     </row>
     <row r="103" spans="1:153" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="229" t="s">
+      <c r="G103" s="212" t="s">
         <v>374</v>
       </c>
-      <c r="H103" s="229"/>
+      <c r="H103" s="212"/>
       <c r="I103" s="95">
         <v>1</v>
       </c>
-      <c r="K103" s="228" t="s">
+      <c r="K103" s="211" t="s">
         <v>375</v>
       </c>
-      <c r="L103" s="228"/>
-      <c r="M103" s="228"/>
-      <c r="N103" s="228"/>
-      <c r="O103" s="228"/>
+      <c r="L103" s="211"/>
+      <c r="M103" s="211"/>
+      <c r="N103" s="211"/>
+      <c r="O103" s="211"/>
       <c r="P103" s="94">
         <v>0.3</v>
       </c>
       <c r="Z103" s="86"/>
-      <c r="AA103" s="195"/>
-      <c r="AB103" s="195"/>
-      <c r="AC103" s="195"/>
-      <c r="AD103" s="195"/>
-      <c r="AE103" s="195" t="s">
+      <c r="AA103" s="228"/>
+      <c r="AB103" s="228"/>
+      <c r="AC103" s="228"/>
+      <c r="AD103" s="228"/>
+      <c r="AE103" s="228" t="s">
         <v>278</v>
       </c>
-      <c r="AF103" s="195"/>
-      <c r="AG103" s="195"/>
+      <c r="AF103" s="228"/>
+      <c r="AG103" s="228"/>
     </row>
     <row r="104" spans="1:153" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="227" t="s">
+      <c r="B104" s="210" t="s">
         <v>365</v>
       </c>
-      <c r="C104" s="227"/>
-      <c r="D104" s="208" t="s">
+      <c r="C104" s="210"/>
+      <c r="D104" s="195" t="s">
         <v>366</v>
       </c>
-      <c r="E104" s="208"/>
-      <c r="F104" s="208"/>
-      <c r="G104" s="208"/>
-      <c r="H104" s="208" t="s">
+      <c r="E104" s="195"/>
+      <c r="F104" s="195"/>
+      <c r="G104" s="195"/>
+      <c r="H104" s="195" t="s">
         <v>368</v>
       </c>
-      <c r="I104" s="208"/>
-      <c r="J104" s="208"/>
-      <c r="K104" s="208"/>
-      <c r="L104" s="227" t="s">
+      <c r="I104" s="195"/>
+      <c r="J104" s="195"/>
+      <c r="K104" s="195"/>
+      <c r="L104" s="210" t="s">
         <v>369</v>
       </c>
-      <c r="M104" s="227" t="s">
+      <c r="M104" s="210" t="s">
         <v>370</v>
       </c>
-      <c r="N104" s="227"/>
-      <c r="Q104" s="205" t="s">
+      <c r="N104" s="210"/>
+      <c r="Q104" s="229" t="s">
         <v>371</v>
       </c>
-      <c r="R104" s="208" t="s">
+      <c r="R104" s="195" t="s">
         <v>237</v>
       </c>
-      <c r="S104" s="208"/>
-      <c r="T104" s="208"/>
+      <c r="S104" s="195"/>
+      <c r="T104" s="195"/>
       <c r="Z104" s="86"/>
-      <c r="AA104" s="195"/>
-      <c r="AB104" s="195"/>
-      <c r="AC104" s="195"/>
-      <c r="AD104" s="195"/>
-      <c r="AE104" s="195"/>
-      <c r="AF104" s="195"/>
-      <c r="AG104" s="195"/>
-      <c r="AI104" s="205" t="s">
+      <c r="AA104" s="228"/>
+      <c r="AB104" s="228"/>
+      <c r="AC104" s="228"/>
+      <c r="AD104" s="228"/>
+      <c r="AE104" s="228"/>
+      <c r="AF104" s="228"/>
+      <c r="AG104" s="228"/>
+      <c r="AI104" s="229" t="s">
         <v>273</v>
       </c>
-      <c r="AJ104" s="208" t="s">
+      <c r="AJ104" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="AK104" s="208"/>
-      <c r="AL104" s="208"/>
+      <c r="AK104" s="195"/>
+      <c r="AL104" s="195"/>
       <c r="AM104" s="1"/>
       <c r="AN104" s="1"/>
       <c r="AO104" s="1"/>
     </row>
     <row r="105" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="227"/>
-      <c r="C105" s="227"/>
+      <c r="B105" s="210"/>
+      <c r="C105" s="210"/>
       <c r="D105" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E105" s="208" t="s">
+      <c r="E105" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="F105" s="208"/>
-      <c r="G105" s="208"/>
+      <c r="F105" s="195"/>
+      <c r="G105" s="195"/>
       <c r="H105" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="I105" s="208" t="s">
+      <c r="I105" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="J105" s="208"/>
-      <c r="K105" s="208"/>
-      <c r="L105" s="227"/>
-      <c r="M105" s="227"/>
-      <c r="N105" s="227"/>
-      <c r="Q105" s="205"/>
-      <c r="R105" s="209"/>
-      <c r="S105" s="209"/>
-      <c r="T105" s="209"/>
+      <c r="J105" s="195"/>
+      <c r="K105" s="195"/>
+      <c r="L105" s="210"/>
+      <c r="M105" s="210"/>
+      <c r="N105" s="210"/>
+      <c r="Q105" s="229"/>
+      <c r="R105" s="225"/>
+      <c r="S105" s="225"/>
+      <c r="T105" s="225"/>
       <c r="Z105" s="86"/>
-      <c r="AA105" s="195"/>
-      <c r="AB105" s="195"/>
-      <c r="AC105" s="195"/>
-      <c r="AD105" s="195"/>
-      <c r="AE105" s="195"/>
-      <c r="AF105" s="195"/>
-      <c r="AG105" s="195"/>
-      <c r="AI105" s="205"/>
-      <c r="AJ105" s="209"/>
-      <c r="AK105" s="209"/>
-      <c r="AL105" s="209"/>
+      <c r="AA105" s="228"/>
+      <c r="AB105" s="228"/>
+      <c r="AC105" s="228"/>
+      <c r="AD105" s="228"/>
+      <c r="AE105" s="228"/>
+      <c r="AF105" s="228"/>
+      <c r="AG105" s="228"/>
+      <c r="AI105" s="229"/>
+      <c r="AJ105" s="225"/>
+      <c r="AK105" s="225"/>
+      <c r="AL105" s="225"/>
       <c r="AM105" s="1"/>
       <c r="AN105" s="1"/>
       <c r="AO105" s="1"/>
@@ -26073,12 +26065,12 @@
         <f>LARGE($M$106:$M$200,1)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="R106" s="206" t="str" cm="1">
+      <c r="R106" s="218" t="str" cm="1">
         <f t="array" ref="R106">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,1))*(COUNTIF(R105:T105, $A$106:$A$200)=0),0)), "")</f>
         <v>R3LIVE</v>
       </c>
-      <c r="S106" s="207"/>
-      <c r="T106" s="207"/>
+      <c r="S106" s="219"/>
+      <c r="T106" s="219"/>
       <c r="U106" s="135" t="s">
         <v>238</v>
       </c>
@@ -26097,12 +26089,12 @@
         <f>LARGE($AF$106:$AF$200,1)</f>
         <v>3.5454545454545454</v>
       </c>
-      <c r="AJ106" s="206" t="str" cm="1">
+      <c r="AJ106" s="218" t="str" cm="1">
         <f t="array" ref="AJ106">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,1))*(COUNTIF(AJ105:AL105, $A$106:$A$200)=0),0)), "")</f>
         <v>DV-LOAM</v>
       </c>
-      <c r="AK106" s="207"/>
-      <c r="AL106" s="207"/>
+      <c r="AK106" s="219"/>
+      <c r="AL106" s="219"/>
       <c r="AM106" s="135" t="s">
         <v>238</v>
       </c>
@@ -26143,17 +26135,17 @@
         <v>0.28793103448275859</v>
       </c>
       <c r="Q107" s="96"/>
-      <c r="R107" s="198" t="str" cm="1">
+      <c r="R107" s="215" t="str" cm="1">
         <f t="array" ref="R107">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,1))*(COUNTIF(R106:T106, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S107" s="199"/>
-      <c r="T107" s="199"/>
-      <c r="U107" s="199" t="s">
+      <c r="S107" s="201"/>
+      <c r="T107" s="201"/>
+      <c r="U107" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V107" s="199"/>
-      <c r="W107" s="200"/>
+      <c r="V107" s="201"/>
+      <c r="W107" s="202"/>
       <c r="Z107" s="86"/>
       <c r="AB107">
         <f t="shared" ref="AB107:AB170" si="7">SUMIF($209:$209, A107, $223:$223)</f>
@@ -26164,22 +26156,22 @@
         <v>1.1379310344827587</v>
       </c>
       <c r="AI107" s="96"/>
-      <c r="AJ107" s="198" t="str" cm="1">
+      <c r="AJ107" s="215" t="str" cm="1">
         <f t="array" ref="AJ107">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,1))*(COUNTIF($AJ$106:AL106, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK107" s="199"/>
-      <c r="AL107" s="199"/>
-      <c r="AM107" s="199" t="s">
+      <c r="AK107" s="201"/>
+      <c r="AL107" s="201"/>
+      <c r="AM107" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN107" s="199"/>
-      <c r="AO107" s="200"/>
+      <c r="AN107" s="201"/>
+      <c r="AO107" s="202"/>
     </row>
     <row r="108" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>MapLab 2.0</v>
+        <v>MapLab</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" ref="B108:B171" si="9">COUNTA(B8:ZZ8)</f>
@@ -26210,17 +26202,17 @@
         <v>0</v>
       </c>
       <c r="Q108" s="96"/>
-      <c r="R108" s="201" t="str" cm="1">
+      <c r="R108" s="197" t="str" cm="1">
         <f t="array" ref="R108">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,1))*(COUNTIF(R106:T107, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S108" s="202"/>
-      <c r="T108" s="202"/>
-      <c r="U108" s="199" t="s">
+      <c r="S108" s="198"/>
+      <c r="T108" s="198"/>
+      <c r="U108" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V108" s="199"/>
-      <c r="W108" s="200"/>
+      <c r="V108" s="201"/>
+      <c r="W108" s="202"/>
       <c r="Z108" s="86"/>
       <c r="AB108">
         <f t="shared" si="7"/>
@@ -26231,17 +26223,17 @@
         <v>0</v>
       </c>
       <c r="AI108" s="96"/>
-      <c r="AJ108" s="201" t="str" cm="1">
+      <c r="AJ108" s="197" t="str" cm="1">
         <f t="array" ref="AJ108">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,1))*(COUNTIF($AJ$106:AL107, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK108" s="202"/>
-      <c r="AL108" s="202"/>
-      <c r="AM108" s="202" t="s">
+      <c r="AK108" s="198"/>
+      <c r="AL108" s="198"/>
+      <c r="AM108" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN108" s="202"/>
-      <c r="AO108" s="203"/>
+      <c r="AN108" s="198"/>
+      <c r="AO108" s="220"/>
     </row>
     <row r="109" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
@@ -26280,12 +26272,12 @@
         <f>LARGE($M$106:$M$200,2)</f>
         <v>0.57311827956989247</v>
       </c>
-      <c r="R109" s="206" t="str" cm="1">
+      <c r="R109" s="218" t="str" cm="1">
         <f t="array" ref="R109">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,2))*(COUNTIF(R106:T108, $A$106:$A$200)=0),0)), "")</f>
         <v>ORB-SLAM3</v>
       </c>
-      <c r="S109" s="207"/>
-      <c r="T109" s="207"/>
+      <c r="S109" s="219"/>
+      <c r="T109" s="219"/>
       <c r="U109" s="136" t="s">
         <v>240</v>
       </c>
@@ -26304,12 +26296,12 @@
         <f>LARGE($AF$106:$AF$200,2)</f>
         <v>2.9545454545454546</v>
       </c>
-      <c r="AJ109" s="206" t="str" cm="1">
+      <c r="AJ109" s="218" t="str" cm="1">
         <f t="array" ref="AJ109">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,2))*(COUNTIF($AJ$106:AL108, $A$106:$A$200)=0),0)), "")</f>
         <v>RTAB. Stereo. ORB2</v>
       </c>
-      <c r="AK109" s="207"/>
-      <c r="AL109" s="207"/>
+      <c r="AK109" s="219"/>
+      <c r="AL109" s="219"/>
       <c r="AM109" s="136" t="s">
         <v>240</v>
       </c>
@@ -26350,17 +26342,17 @@
         <v>0.15733333333333335</v>
       </c>
       <c r="Q110" s="96"/>
-      <c r="R110" s="198" t="str" cm="1">
+      <c r="R110" s="215" t="str" cm="1">
         <f t="array" ref="R110">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,2))*(COUNTIF($R$106:T109, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S110" s="199"/>
-      <c r="T110" s="199"/>
-      <c r="U110" s="199" t="s">
+      <c r="S110" s="201"/>
+      <c r="T110" s="201"/>
+      <c r="U110" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V110" s="199"/>
-      <c r="W110" s="200"/>
+      <c r="V110" s="201"/>
+      <c r="W110" s="202"/>
       <c r="Z110" s="86"/>
       <c r="AB110">
         <f t="shared" si="7"/>
@@ -26371,17 +26363,17 @@
         <v>0.58666666666666667</v>
       </c>
       <c r="AI110" s="96"/>
-      <c r="AJ110" s="198" t="str" cm="1">
+      <c r="AJ110" s="215" t="str" cm="1">
         <f t="array" ref="AJ110">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,2))*(COUNTIF($AJ$106:AL109, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK110" s="199"/>
-      <c r="AL110" s="199"/>
-      <c r="AM110" s="199" t="s">
+      <c r="AK110" s="201"/>
+      <c r="AL110" s="201"/>
+      <c r="AM110" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN110" s="199"/>
-      <c r="AO110" s="200"/>
+      <c r="AN110" s="201"/>
+      <c r="AO110" s="202"/>
     </row>
     <row r="111" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="str">
@@ -26417,17 +26409,17 @@
         <v>6.5217391304347823E-3</v>
       </c>
       <c r="Q111" s="96"/>
-      <c r="R111" s="201" t="str" cm="1">
+      <c r="R111" s="197" t="str" cm="1">
         <f t="array" ref="R111">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,2))*(COUNTIF($R$106:T110, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S111" s="202"/>
-      <c r="T111" s="202"/>
-      <c r="U111" s="199" t="s">
+      <c r="S111" s="198"/>
+      <c r="T111" s="198"/>
+      <c r="U111" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V111" s="199"/>
-      <c r="W111" s="200"/>
+      <c r="V111" s="201"/>
+      <c r="W111" s="202"/>
       <c r="Z111" s="86"/>
       <c r="AB111">
         <f t="shared" si="7"/>
@@ -26438,17 +26430,17 @@
         <v>0</v>
       </c>
       <c r="AI111" s="96"/>
-      <c r="AJ111" s="201" t="str" cm="1">
+      <c r="AJ111" s="197" t="str" cm="1">
         <f t="array" ref="AJ111">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,2))*(COUNTIF($AJ$106:AL110, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK111" s="202"/>
-      <c r="AL111" s="202"/>
-      <c r="AM111" s="202" t="s">
+      <c r="AK111" s="198"/>
+      <c r="AL111" s="198"/>
+      <c r="AM111" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN111" s="202"/>
-      <c r="AO111" s="203"/>
+      <c r="AN111" s="198"/>
+      <c r="AO111" s="220"/>
     </row>
     <row r="112" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
@@ -26487,12 +26479,12 @@
         <f>LARGE($M$106:$M$200,3)</f>
         <v>0.5541666666666667</v>
       </c>
-      <c r="R112" s="206" t="str" cm="1">
+      <c r="R112" s="218" t="str" cm="1">
         <f t="array" ref="R112">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,3))*(COUNTIF($R$106:T111, $A$106:$A$200)=0),0)), "")</f>
         <v>FAST-LIO2</v>
       </c>
-      <c r="S112" s="207"/>
-      <c r="T112" s="207"/>
+      <c r="S112" s="219"/>
+      <c r="T112" s="219"/>
       <c r="U112" s="136" t="s">
         <v>241</v>
       </c>
@@ -26511,12 +26503,12 @@
         <f>LARGE($AF$106:$AF$200,3)</f>
         <v>2.5591397849462365</v>
       </c>
-      <c r="AJ112" s="206" t="str" cm="1">
+      <c r="AJ112" s="218" t="str" cm="1">
         <f t="array" ref="AJ112">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,3))*(COUNTIF($AJ$106:AL111, $A$106:$A$200)=0),0)), "")</f>
         <v>ORB-SLAM3</v>
       </c>
-      <c r="AK112" s="207"/>
-      <c r="AL112" s="207"/>
+      <c r="AK112" s="219"/>
+      <c r="AL112" s="219"/>
       <c r="AM112" s="136" t="s">
         <v>241</v>
       </c>
@@ -26557,17 +26549,17 @@
         <v>0.17333333333333334</v>
       </c>
       <c r="Q113" s="96"/>
-      <c r="R113" s="198" t="str" cm="1">
+      <c r="R113" s="215" t="str" cm="1">
         <f t="array" ref="R113">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,3))*(COUNTIF($R$106:T112, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S113" s="199"/>
-      <c r="T113" s="199"/>
-      <c r="U113" s="199" t="s">
+      <c r="S113" s="201"/>
+      <c r="T113" s="201"/>
+      <c r="U113" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V113" s="199"/>
-      <c r="W113" s="200"/>
+      <c r="V113" s="201"/>
+      <c r="W113" s="202"/>
       <c r="Z113" s="86"/>
       <c r="AB113">
         <f t="shared" si="7"/>
@@ -26578,17 +26570,17 @@
         <v>1.2</v>
       </c>
       <c r="AI113" s="96"/>
-      <c r="AJ113" s="198" t="str" cm="1">
+      <c r="AJ113" s="215" t="str" cm="1">
         <f t="array" ref="AJ113">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,3))*(COUNTIF($AJ$106:AL112, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK113" s="199"/>
-      <c r="AL113" s="199"/>
-      <c r="AM113" s="199" t="s">
+      <c r="AK113" s="201"/>
+      <c r="AL113" s="201"/>
+      <c r="AM113" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN113" s="199"/>
-      <c r="AO113" s="200"/>
+      <c r="AN113" s="201"/>
+      <c r="AO113" s="202"/>
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="str">
@@ -26624,17 +26616,17 @@
         <v>4.8148148148148148E-2</v>
       </c>
       <c r="Q114" s="96"/>
-      <c r="R114" s="201" t="str" cm="1">
+      <c r="R114" s="197" t="str" cm="1">
         <f t="array" ref="R114">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,3))*(COUNTIF($R$106:T113, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S114" s="202"/>
-      <c r="T114" s="202"/>
-      <c r="U114" s="199" t="s">
+      <c r="S114" s="198"/>
+      <c r="T114" s="198"/>
+      <c r="U114" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V114" s="199"/>
-      <c r="W114" s="200"/>
+      <c r="V114" s="201"/>
+      <c r="W114" s="202"/>
       <c r="Z114" s="86"/>
       <c r="AB114">
         <f t="shared" si="7"/>
@@ -26645,17 +26637,17 @@
         <v>0.29629629629629628</v>
       </c>
       <c r="AI114" s="96"/>
-      <c r="AJ114" s="201" t="str" cm="1">
+      <c r="AJ114" s="197" t="str" cm="1">
         <f t="array" ref="AJ114">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,3))*(COUNTIF($AJ$106:AL113, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK114" s="202"/>
-      <c r="AL114" s="202"/>
-      <c r="AM114" s="202" t="s">
+      <c r="AK114" s="198"/>
+      <c r="AL114" s="198"/>
+      <c r="AM114" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN114" s="202"/>
-      <c r="AO114" s="203"/>
+      <c r="AN114" s="198"/>
+      <c r="AO114" s="220"/>
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="str">
@@ -26694,12 +26686,12 @@
         <f>LARGE($M$106:$M$200,4)</f>
         <v>0.53749999999999998</v>
       </c>
-      <c r="R115" s="196" t="str" cm="1">
+      <c r="R115" s="213" t="str" cm="1">
         <f t="array" ref="R115">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,4))*(COUNTIF($R$106:T114, $A$106:$A$200)=0),0)), "")</f>
         <v>R2LIVE</v>
       </c>
-      <c r="S115" s="197"/>
-      <c r="T115" s="197"/>
+      <c r="S115" s="214"/>
+      <c r="T115" s="214"/>
       <c r="U115" s="138" t="s">
         <v>242</v>
       </c>
@@ -26715,12 +26707,12 @@
         <v>0</v>
       </c>
       <c r="AI115" s="137"/>
-      <c r="AJ115" s="196" t="str" cm="1">
+      <c r="AJ115" s="213" t="str" cm="1">
         <f t="array" ref="AJ115">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,4))*(COUNTIF($AJ$106:AL114, $A$106:$A$200)=0),0)), "")</f>
         <v>ORB-SLAM</v>
       </c>
-      <c r="AK115" s="197"/>
-      <c r="AL115" s="197"/>
+      <c r="AK115" s="214"/>
+      <c r="AL115" s="214"/>
       <c r="AM115" s="138" t="s">
         <v>242</v>
       </c>
@@ -26761,17 +26753,17 @@
         <v>0.57311827956989247</v>
       </c>
       <c r="Q116" s="96"/>
-      <c r="R116" s="198" t="str" cm="1">
+      <c r="R116" s="215" t="str" cm="1">
         <f t="array" ref="R116">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,4))*(COUNTIF($R$106:T115, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S116" s="199"/>
-      <c r="T116" s="199"/>
-      <c r="U116" s="199" t="s">
+      <c r="S116" s="201"/>
+      <c r="T116" s="201"/>
+      <c r="U116" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V116" s="199"/>
-      <c r="W116" s="200"/>
+      <c r="V116" s="201"/>
+      <c r="W116" s="202"/>
       <c r="Z116" s="86"/>
       <c r="AB116">
         <f t="shared" si="7"/>
@@ -26782,17 +26774,17 @@
         <v>2.5591397849462365</v>
       </c>
       <c r="AI116" s="96"/>
-      <c r="AJ116" s="198" t="str" cm="1">
+      <c r="AJ116" s="215" t="str" cm="1">
         <f t="array" ref="AJ116">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,4))*(COUNTIF($AJ$106:AL115, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK116" s="199"/>
-      <c r="AL116" s="199"/>
-      <c r="AM116" s="199" t="s">
+      <c r="AK116" s="201"/>
+      <c r="AL116" s="201"/>
+      <c r="AM116" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN116" s="199"/>
-      <c r="AO116" s="200"/>
+      <c r="AN116" s="201"/>
+      <c r="AO116" s="202"/>
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="str">
@@ -26828,17 +26820,17 @@
         <v/>
       </c>
       <c r="Q117" s="96"/>
-      <c r="R117" s="201" t="str" cm="1">
+      <c r="R117" s="197" t="str" cm="1">
         <f t="array" ref="R117">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,4))*(COUNTIF($R$106:T116, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S117" s="202"/>
-      <c r="T117" s="202"/>
-      <c r="U117" s="199" t="s">
+      <c r="S117" s="198"/>
+      <c r="T117" s="198"/>
+      <c r="U117" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V117" s="199"/>
-      <c r="W117" s="200"/>
+      <c r="V117" s="201"/>
+      <c r="W117" s="202"/>
       <c r="Z117" s="86"/>
       <c r="AB117">
         <f t="shared" si="7"/>
@@ -26849,17 +26841,17 @@
         <v/>
       </c>
       <c r="AI117" s="96"/>
-      <c r="AJ117" s="201" t="str" cm="1">
+      <c r="AJ117" s="197" t="str" cm="1">
         <f t="array" ref="AJ117">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,4))*(COUNTIF($AJ$106:AL116, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK117" s="202"/>
-      <c r="AL117" s="202"/>
-      <c r="AM117" s="202" t="s">
+      <c r="AK117" s="198"/>
+      <c r="AL117" s="198"/>
+      <c r="AM117" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN117" s="202"/>
-      <c r="AO117" s="203"/>
+      <c r="AN117" s="198"/>
+      <c r="AO117" s="220"/>
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="str">
@@ -26898,12 +26890,12 @@
         <f>LARGE($M$106:$M$200,5)</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="R118" s="196" t="str" cm="1">
+      <c r="R118" s="213" t="str" cm="1">
         <f t="array" ref="R118">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,5))*(COUNTIF($R$106:T117, $A$106:$A$200)=0),0)), "")</f>
         <v>ORB-SLAM</v>
       </c>
-      <c r="S118" s="197"/>
-      <c r="T118" s="197"/>
+      <c r="S118" s="214"/>
+      <c r="T118" s="214"/>
       <c r="U118" s="138" t="s">
         <v>243</v>
       </c>
@@ -26919,12 +26911,12 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="AI118" s="137"/>
-      <c r="AJ118" s="196" t="str" cm="1">
+      <c r="AJ118" s="213" t="str" cm="1">
         <f t="array" ref="AJ118">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,5))*(COUNTIF($AJ$106:AL117, $A$106:$A$200)=0),0)), "")</f>
         <v>FAST-LIO2</v>
       </c>
-      <c r="AK118" s="197"/>
-      <c r="AL118" s="197"/>
+      <c r="AK118" s="214"/>
+      <c r="AL118" s="214"/>
       <c r="AM118" s="138" t="s">
         <v>243</v>
       </c>
@@ -26965,17 +26957,17 @@
         <v>2.7272727272727271E-2</v>
       </c>
       <c r="Q119" s="96"/>
-      <c r="R119" s="198" t="str" cm="1">
+      <c r="R119" s="215" t="str" cm="1">
         <f t="array" ref="R119">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,5))*(COUNTIF($R$106:T118, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S119" s="199"/>
-      <c r="T119" s="199"/>
-      <c r="U119" s="199" t="s">
+      <c r="S119" s="201"/>
+      <c r="T119" s="201"/>
+      <c r="U119" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V119" s="199"/>
-      <c r="W119" s="200"/>
+      <c r="V119" s="201"/>
+      <c r="W119" s="202"/>
       <c r="Z119" s="86"/>
       <c r="AB119">
         <f t="shared" si="7"/>
@@ -26986,17 +26978,17 @@
         <v>0</v>
       </c>
       <c r="AI119" s="96"/>
-      <c r="AJ119" s="198" t="str" cm="1">
+      <c r="AJ119" s="215" t="str" cm="1">
         <f t="array" ref="AJ119">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,5))*(COUNTIF($AJ$106:AL118, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK119" s="199"/>
-      <c r="AL119" s="199"/>
-      <c r="AM119" s="199" t="s">
+      <c r="AK119" s="201"/>
+      <c r="AL119" s="201"/>
+      <c r="AM119" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN119" s="199"/>
-      <c r="AO119" s="200"/>
+      <c r="AN119" s="201"/>
+      <c r="AO119" s="202"/>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="str">
@@ -27032,17 +27024,17 @@
         <v/>
       </c>
       <c r="Q120" s="96"/>
-      <c r="R120" s="201" t="str" cm="1">
+      <c r="R120" s="197" t="str" cm="1">
         <f t="array" ref="R120">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,5))*(COUNTIF($R$106:T119, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S120" s="202"/>
-      <c r="T120" s="202"/>
-      <c r="U120" s="199" t="s">
+      <c r="S120" s="198"/>
+      <c r="T120" s="198"/>
+      <c r="U120" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V120" s="199"/>
-      <c r="W120" s="200"/>
+      <c r="V120" s="201"/>
+      <c r="W120" s="202"/>
       <c r="Z120" s="86"/>
       <c r="AB120">
         <f t="shared" si="7"/>
@@ -27053,17 +27045,17 @@
         <v/>
       </c>
       <c r="AI120" s="96"/>
-      <c r="AJ120" s="201" t="str" cm="1">
+      <c r="AJ120" s="197" t="str" cm="1">
         <f t="array" ref="AJ120">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,5))*(COUNTIF($AJ$106:AL119, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK120" s="202"/>
-      <c r="AL120" s="202"/>
-      <c r="AM120" s="202" t="s">
+      <c r="AK120" s="198"/>
+      <c r="AL120" s="198"/>
+      <c r="AM120" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN120" s="202"/>
-      <c r="AO120" s="203"/>
+      <c r="AN120" s="198"/>
+      <c r="AO120" s="220"/>
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="str">
@@ -27102,12 +27094,12 @@
         <f>LARGE($M$106:$M$200,6)</f>
         <v>0.41785714285714282</v>
       </c>
-      <c r="R121" s="196" t="str" cm="1">
+      <c r="R121" s="213" t="str" cm="1">
         <f t="array" ref="R121">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,6))*(COUNTIF($R$106:T120, $A$106:$A$200)=0),0)), "")</f>
         <v>OpenVSLAM</v>
       </c>
-      <c r="S121" s="197"/>
-      <c r="T121" s="197"/>
+      <c r="S121" s="214"/>
+      <c r="T121" s="214"/>
       <c r="U121" s="138" t="s">
         <v>244</v>
       </c>
@@ -27123,12 +27115,12 @@
         <v/>
       </c>
       <c r="AI121" s="137"/>
-      <c r="AJ121" s="196" t="str" cm="1">
+      <c r="AJ121" s="213" t="str" cm="1">
         <f t="array" ref="AJ121">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,6))*(COUNTIF($AJ$106:AL120, $A$106:$A$200)=0),0)), "")</f>
         <v>OpenVSLAM</v>
       </c>
-      <c r="AK121" s="197"/>
-      <c r="AL121" s="197"/>
+      <c r="AK121" s="214"/>
+      <c r="AL121" s="214"/>
       <c r="AM121" s="138" t="s">
         <v>244</v>
       </c>
@@ -27169,17 +27161,17 @@
         <v>0.21818181818181817</v>
       </c>
       <c r="Q122" s="96"/>
-      <c r="R122" s="198" t="str" cm="1">
+      <c r="R122" s="215" t="str" cm="1">
         <f t="array" ref="R122">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,6))*(COUNTIF($R$106:T121, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S122" s="199"/>
-      <c r="T122" s="199"/>
-      <c r="U122" s="199" t="s">
+      <c r="S122" s="201"/>
+      <c r="T122" s="201"/>
+      <c r="U122" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V122" s="199"/>
-      <c r="W122" s="200"/>
+      <c r="V122" s="201"/>
+      <c r="W122" s="202"/>
       <c r="Z122" s="86"/>
       <c r="AB122">
         <f t="shared" si="7"/>
@@ -27190,17 +27182,17 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="AI122" s="96"/>
-      <c r="AJ122" s="198" t="str" cm="1">
+      <c r="AJ122" s="215" t="str" cm="1">
         <f t="array" ref="AJ122">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,6))*(COUNTIF($AJ$106:AL121, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK122" s="199"/>
-      <c r="AL122" s="199"/>
-      <c r="AM122" s="199" t="s">
+      <c r="AK122" s="201"/>
+      <c r="AL122" s="201"/>
+      <c r="AM122" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN122" s="199"/>
-      <c r="AO122" s="200"/>
+      <c r="AN122" s="201"/>
+      <c r="AO122" s="202"/>
     </row>
     <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="str">
@@ -27236,17 +27228,17 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="Q123" s="96"/>
-      <c r="R123" s="201" t="str" cm="1">
+      <c r="R123" s="197" t="str" cm="1">
         <f t="array" ref="R123">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,6))*(COUNTIF($R$106:T122, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S123" s="202"/>
-      <c r="T123" s="202"/>
-      <c r="U123" s="199" t="s">
+      <c r="S123" s="198"/>
+      <c r="T123" s="198"/>
+      <c r="U123" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V123" s="199"/>
-      <c r="W123" s="200"/>
+      <c r="V123" s="201"/>
+      <c r="W123" s="202"/>
       <c r="Z123" s="86"/>
       <c r="AB123">
         <f t="shared" si="7"/>
@@ -27257,17 +27249,17 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="AI123" s="96"/>
-      <c r="AJ123" s="201" t="str" cm="1">
+      <c r="AJ123" s="197" t="str" cm="1">
         <f t="array" ref="AJ123">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,6))*(COUNTIF($AJ$106:AL122, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK123" s="202"/>
-      <c r="AL123" s="202"/>
-      <c r="AM123" s="202" t="s">
+      <c r="AK123" s="198"/>
+      <c r="AL123" s="198"/>
+      <c r="AM123" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN123" s="202"/>
-      <c r="AO123" s="203"/>
+      <c r="AN123" s="198"/>
+      <c r="AO123" s="220"/>
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="str">
@@ -27306,12 +27298,12 @@
         <f>LARGE($M$106:$M$200,7)</f>
         <v>0.38181818181818183</v>
       </c>
-      <c r="R124" s="196" t="str" cm="1">
+      <c r="R124" s="213" t="str" cm="1">
         <f t="array" ref="R124">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,7))*(COUNTIF($R$106:T123, $A$106:$A$200)=0),0)), "")</f>
         <v>DV-LOAM</v>
       </c>
-      <c r="S124" s="197"/>
-      <c r="T124" s="197"/>
+      <c r="S124" s="214"/>
+      <c r="T124" s="214"/>
       <c r="U124" s="138" t="s">
         <v>245</v>
       </c>
@@ -27327,12 +27319,12 @@
         <v>1.0769230769230769</v>
       </c>
       <c r="AI124" s="137"/>
-      <c r="AJ124" s="196" t="str" cm="1">
+      <c r="AJ124" s="213" t="str" cm="1">
         <f t="array" ref="AJ124">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,7))*(COUNTIF($AJ$106:AL123, $A$106:$A$200)=0),0)), "")</f>
         <v>R3LIVE</v>
       </c>
-      <c r="AK124" s="197"/>
-      <c r="AL124" s="197"/>
+      <c r="AK124" s="214"/>
+      <c r="AL124" s="214"/>
       <c r="AM124" s="138" t="s">
         <v>245</v>
       </c>
@@ -27372,17 +27364,17 @@
         <f t="shared" si="6"/>
         <v>0.38181818181818183</v>
       </c>
-      <c r="R125" s="198" t="str" cm="1">
+      <c r="R125" s="215" t="str" cm="1">
         <f t="array" ref="R125">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,7))*(COUNTIF($R$106:T124, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S125" s="199"/>
-      <c r="T125" s="199"/>
-      <c r="U125" s="199" t="s">
+      <c r="S125" s="201"/>
+      <c r="T125" s="201"/>
+      <c r="U125" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V125" s="199"/>
-      <c r="W125" s="200"/>
+      <c r="V125" s="201"/>
+      <c r="W125" s="202"/>
       <c r="Z125" s="86"/>
       <c r="AB125">
         <f t="shared" si="7"/>
@@ -27393,17 +27385,17 @@
         <v>3.5454545454545454</v>
       </c>
       <c r="AI125" s="1"/>
-      <c r="AJ125" s="198" t="str" cm="1">
+      <c r="AJ125" s="215" t="str" cm="1">
         <f t="array" ref="AJ125">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,7))*(COUNTIF($AJ$106:AL124, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK125" s="199"/>
-      <c r="AL125" s="199"/>
-      <c r="AM125" s="199" t="s">
+      <c r="AK125" s="201"/>
+      <c r="AL125" s="201"/>
+      <c r="AM125" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN125" s="199"/>
-      <c r="AO125" s="200"/>
+      <c r="AN125" s="201"/>
+      <c r="AO125" s="202"/>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
@@ -27438,17 +27430,17 @@
         <f t="shared" si="6"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="R126" s="198" t="str" cm="1">
+      <c r="R126" s="215" t="str" cm="1">
         <f t="array" ref="R126">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,7))*(COUNTIF($R$106:T125, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S126" s="199"/>
-      <c r="T126" s="199"/>
-      <c r="U126" s="199" t="s">
+      <c r="S126" s="201"/>
+      <c r="T126" s="201"/>
+      <c r="U126" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V126" s="199"/>
-      <c r="W126" s="200"/>
+      <c r="V126" s="201"/>
+      <c r="W126" s="202"/>
       <c r="Z126" s="86"/>
       <c r="AB126">
         <f t="shared" si="7"/>
@@ -27459,17 +27451,17 @@
         <v>1.1818181818181819</v>
       </c>
       <c r="AI126" s="1"/>
-      <c r="AJ126" s="201" t="str" cm="1">
+      <c r="AJ126" s="197" t="str" cm="1">
         <f t="array" ref="AJ126">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,7))*(COUNTIF($AJ$106:AL125, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK126" s="202"/>
-      <c r="AL126" s="202"/>
-      <c r="AM126" s="202" t="s">
+      <c r="AK126" s="198"/>
+      <c r="AL126" s="198"/>
+      <c r="AM126" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN126" s="202"/>
-      <c r="AO126" s="203"/>
+      <c r="AN126" s="198"/>
+      <c r="AO126" s="220"/>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="str">
@@ -27508,12 +27500,12 @@
         <f>LARGE($M$106:$M$200,8)</f>
         <v>0.28793103448275859</v>
       </c>
-      <c r="R127" s="196" t="str" cm="1">
+      <c r="R127" s="213" t="str" cm="1">
         <f t="array" ref="R127">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,8))*(COUNTIF($R$106:T126, $A$106:$A$200)=0),0)), "")</f>
         <v>ORB-SLAM2</v>
       </c>
-      <c r="S127" s="197"/>
-      <c r="T127" s="197"/>
+      <c r="S127" s="214"/>
+      <c r="T127" s="214"/>
       <c r="U127" s="138" t="s">
         <v>270</v>
       </c>
@@ -27529,12 +27521,12 @@
         <v/>
       </c>
       <c r="AI127" s="10"/>
-      <c r="AJ127" s="196" t="str" cm="1">
+      <c r="AJ127" s="213" t="str" cm="1">
         <f t="array" ref="AJ127">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,8))*(COUNTIF($AJ$106:AL126, $A$106:$A$200)=0),0)), "")</f>
         <v>Basalt</v>
       </c>
-      <c r="AK127" s="197"/>
-      <c r="AL127" s="197"/>
+      <c r="AK127" s="214"/>
+      <c r="AL127" s="214"/>
       <c r="AM127" s="138" t="s">
         <v>270</v>
       </c>
@@ -27574,17 +27566,17 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R128" s="198" t="str" cm="1">
+      <c r="R128" s="215" t="str" cm="1">
         <f t="array" ref="R128">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,8))*(COUNTIF($R$106:T127, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S128" s="199"/>
-      <c r="T128" s="199"/>
-      <c r="U128" s="199" t="s">
+      <c r="S128" s="201"/>
+      <c r="T128" s="201"/>
+      <c r="U128" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V128" s="199"/>
-      <c r="W128" s="200"/>
+      <c r="V128" s="201"/>
+      <c r="W128" s="202"/>
       <c r="Z128" s="86"/>
       <c r="AB128">
         <f t="shared" si="7"/>
@@ -27595,17 +27587,17 @@
         <v/>
       </c>
       <c r="AI128" s="1"/>
-      <c r="AJ128" s="198" t="str" cm="1">
+      <c r="AJ128" s="215" t="str" cm="1">
         <f t="array" ref="AJ128">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,8))*(COUNTIF($AJ$106:AL127, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK128" s="199"/>
-      <c r="AL128" s="199"/>
-      <c r="AM128" s="199" t="s">
+      <c r="AK128" s="201"/>
+      <c r="AL128" s="201"/>
+      <c r="AM128" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN128" s="199"/>
-      <c r="AO128" s="200"/>
+      <c r="AN128" s="201"/>
+      <c r="AO128" s="202"/>
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="str">
@@ -27640,17 +27632,17 @@
         <f t="shared" si="6"/>
         <v>0.53749999999999998</v>
       </c>
-      <c r="R129" s="201" t="str" cm="1">
+      <c r="R129" s="197" t="str" cm="1">
         <f t="array" ref="R129">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,8))*(COUNTIF($R$106:T128, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S129" s="202"/>
-      <c r="T129" s="202"/>
-      <c r="U129" s="199" t="s">
+      <c r="S129" s="198"/>
+      <c r="T129" s="198"/>
+      <c r="U129" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V129" s="199"/>
-      <c r="W129" s="200"/>
+      <c r="V129" s="201"/>
+      <c r="W129" s="202"/>
       <c r="Z129" s="86"/>
       <c r="AB129">
         <f t="shared" si="7"/>
@@ -27661,17 +27653,17 @@
         <v>1</v>
       </c>
       <c r="AI129" s="1"/>
-      <c r="AJ129" s="201" t="str" cm="1">
+      <c r="AJ129" s="197" t="str" cm="1">
         <f t="array" ref="AJ129">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,8))*(COUNTIF($AJ$106:AL128, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK129" s="202"/>
-      <c r="AL129" s="202"/>
-      <c r="AM129" s="202" t="s">
+      <c r="AK129" s="198"/>
+      <c r="AL129" s="198"/>
+      <c r="AM129" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN129" s="202"/>
-      <c r="AO129" s="203"/>
+      <c r="AN129" s="198"/>
+      <c r="AO129" s="220"/>
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="str">
@@ -27710,12 +27702,12 @@
         <f>LARGE($M$106:$M$200,9)</f>
         <v>0.26818181818181819</v>
       </c>
-      <c r="R130" s="196" t="str" cm="1">
+      <c r="R130" s="213" t="str" cm="1">
         <f t="array" ref="R130">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,9))*(COUNTIF($R$106:T129, $A$106:$A$200)=0),0)), "")</f>
         <v>RTAB. Stereo. ORB2</v>
       </c>
-      <c r="S130" s="197"/>
-      <c r="T130" s="197"/>
+      <c r="S130" s="214"/>
+      <c r="T130" s="214"/>
       <c r="U130" s="138" t="s">
         <v>271</v>
       </c>
@@ -27731,12 +27723,12 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="AI130" s="10"/>
-      <c r="AJ130" s="196" t="str" cm="1">
+      <c r="AJ130" s="213" t="str" cm="1">
         <f t="array" ref="AJ130">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,9))*(COUNTIF($AJ$106:AL129, $A$106:$A$200)=0),0)), "")</f>
         <v>DVL-SLAM</v>
       </c>
-      <c r="AK130" s="197"/>
-      <c r="AL130" s="197"/>
+      <c r="AK130" s="214"/>
+      <c r="AL130" s="214"/>
       <c r="AM130" s="138" t="s">
         <v>271</v>
       </c>
@@ -27776,17 +27768,17 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R131" s="198" t="str" cm="1">
+      <c r="R131" s="215" t="str" cm="1">
         <f t="array" ref="R131">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,9))*(COUNTIF($R$106:T130, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S131" s="199"/>
-      <c r="T131" s="199"/>
-      <c r="U131" s="199" t="s">
+      <c r="S131" s="201"/>
+      <c r="T131" s="201"/>
+      <c r="U131" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V131" s="199"/>
-      <c r="W131" s="200"/>
+      <c r="V131" s="201"/>
+      <c r="W131" s="202"/>
       <c r="Z131" s="86"/>
       <c r="AB131">
         <f t="shared" si="7"/>
@@ -27797,17 +27789,17 @@
         <v/>
       </c>
       <c r="AI131" s="1"/>
-      <c r="AJ131" s="198" t="str" cm="1">
+      <c r="AJ131" s="215" t="str" cm="1">
         <f t="array" ref="AJ131">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,9))*(COUNTIF($AJ$106:AL130, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK131" s="199"/>
-      <c r="AL131" s="199"/>
-      <c r="AM131" s="199" t="s">
+      <c r="AK131" s="201"/>
+      <c r="AL131" s="201"/>
+      <c r="AM131" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN131" s="199"/>
-      <c r="AO131" s="200"/>
+      <c r="AN131" s="201"/>
+      <c r="AO131" s="202"/>
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="str">
@@ -27842,17 +27834,17 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R132" s="201" t="str" cm="1">
+      <c r="R132" s="197" t="str" cm="1">
         <f t="array" ref="R132">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,9))*(COUNTIF($R$106:T131, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S132" s="202"/>
-      <c r="T132" s="202"/>
-      <c r="U132" s="199" t="s">
+      <c r="S132" s="198"/>
+      <c r="T132" s="198"/>
+      <c r="U132" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V132" s="199"/>
-      <c r="W132" s="200"/>
+      <c r="V132" s="201"/>
+      <c r="W132" s="202"/>
       <c r="Z132" s="86"/>
       <c r="AB132">
         <f t="shared" si="7"/>
@@ -27863,17 +27855,17 @@
         <v/>
       </c>
       <c r="AI132" s="1"/>
-      <c r="AJ132" s="201" t="str" cm="1">
+      <c r="AJ132" s="197" t="str" cm="1">
         <f t="array" ref="AJ132">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,9))*(COUNTIF($AJ$106:AL131, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK132" s="202"/>
-      <c r="AL132" s="202"/>
-      <c r="AM132" s="202" t="s">
+      <c r="AK132" s="198"/>
+      <c r="AL132" s="198"/>
+      <c r="AM132" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN132" s="202"/>
-      <c r="AO132" s="203"/>
+      <c r="AN132" s="198"/>
+      <c r="AO132" s="220"/>
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="str">
@@ -27912,12 +27904,12 @@
         <f>LARGE($M$106:$M$200,10)</f>
         <v>0.21818181818181817</v>
       </c>
-      <c r="R133" s="210" t="str" cm="1">
+      <c r="R133" s="226" t="str" cm="1">
         <f t="array" ref="R133">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,10))*(COUNTIF($R$106:T132, $A$106:$A$200)=0),0)), "")</f>
         <v>RTAB-Map</v>
       </c>
-      <c r="S133" s="211"/>
-      <c r="T133" s="211"/>
+      <c r="S133" s="227"/>
+      <c r="T133" s="227"/>
       <c r="U133" s="138" t="s">
         <v>272</v>
       </c>
@@ -27933,12 +27925,12 @@
         <v/>
       </c>
       <c r="AI133" s="10"/>
-      <c r="AJ133" s="196" t="str" cm="1">
+      <c r="AJ133" s="213" t="str" cm="1">
         <f t="array" ref="AJ133">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,10))*(COUNTIF($AJ$106:AL132, $A$106:$A$200)=0),0)), "")</f>
         <v>ORB-SLAM2</v>
       </c>
-      <c r="AK133" s="197"/>
-      <c r="AL133" s="197"/>
+      <c r="AK133" s="214"/>
+      <c r="AL133" s="214"/>
       <c r="AM133" s="138" t="s">
         <v>272</v>
       </c>
@@ -27978,17 +27970,17 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R134" s="198" t="str" cm="1">
+      <c r="R134" s="215" t="str" cm="1">
         <f t="array" ref="R134">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,10))*(COUNTIF($R$106:T133, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S134" s="199"/>
-      <c r="T134" s="199"/>
-      <c r="U134" s="199" t="s">
+      <c r="S134" s="201"/>
+      <c r="T134" s="201"/>
+      <c r="U134" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V134" s="199"/>
-      <c r="W134" s="200"/>
+      <c r="V134" s="201"/>
+      <c r="W134" s="202"/>
       <c r="Z134" s="86"/>
       <c r="AB134">
         <f t="shared" si="7"/>
@@ -27999,17 +27991,17 @@
         <v/>
       </c>
       <c r="AI134" s="1"/>
-      <c r="AJ134" s="198" t="str" cm="1">
+      <c r="AJ134" s="215" t="str" cm="1">
         <f t="array" ref="AJ134">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,10))*(COUNTIF($AJ$106:AL133, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK134" s="199"/>
-      <c r="AL134" s="199"/>
-      <c r="AM134" s="199" t="s">
+      <c r="AK134" s="201"/>
+      <c r="AL134" s="201"/>
+      <c r="AM134" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="AN134" s="199"/>
-      <c r="AO134" s="200"/>
+      <c r="AN134" s="201"/>
+      <c r="AO134" s="202"/>
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="str">
@@ -28044,17 +28036,17 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R135" s="201" t="str" cm="1">
+      <c r="R135" s="197" t="str" cm="1">
         <f t="array" ref="R135">IFERROR(INDEX($A$106:$A$200, MATCH(1,($M$106:$M$200=LARGE($M$106:$M$200,10))*(COUNTIF($R$106:T134, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="S135" s="202"/>
-      <c r="T135" s="202"/>
-      <c r="U135" s="199" t="s">
+      <c r="S135" s="198"/>
+      <c r="T135" s="198"/>
+      <c r="U135" s="201" t="s">
         <v>372</v>
       </c>
-      <c r="V135" s="199"/>
-      <c r="W135" s="200"/>
+      <c r="V135" s="201"/>
+      <c r="W135" s="202"/>
       <c r="Z135" s="86"/>
       <c r="AB135">
         <f t="shared" si="7"/>
@@ -28065,17 +28057,17 @@
         <v/>
       </c>
       <c r="AI135" s="1"/>
-      <c r="AJ135" s="201" t="str" cm="1">
+      <c r="AJ135" s="197" t="str" cm="1">
         <f t="array" ref="AJ135">IFERROR(INDEX($A$106:$A$200, MATCH(1,($AF$106:$AF$200=LARGE($AF$106:$AF$200,10))*(COUNTIF($AJ$106:AL134, $A$106:$A$200)=0),0)), "")</f>
         <v/>
       </c>
-      <c r="AK135" s="202"/>
-      <c r="AL135" s="202"/>
-      <c r="AM135" s="202" t="s">
+      <c r="AK135" s="198"/>
+      <c r="AL135" s="198"/>
+      <c r="AM135" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="AN135" s="202"/>
-      <c r="AO135" s="203"/>
+      <c r="AN135" s="198"/>
+      <c r="AO135" s="220"/>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="str">
@@ -28110,9 +28102,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R136" s="199"/>
-      <c r="S136" s="199"/>
-      <c r="T136" s="199"/>
+      <c r="R136" s="201"/>
+      <c r="S136" s="201"/>
+      <c r="T136" s="201"/>
       <c r="U136" s="105"/>
       <c r="V136" s="105"/>
       <c r="W136" s="105"/>
@@ -28159,12 +28151,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R137" s="199"/>
-      <c r="S137" s="199"/>
-      <c r="T137" s="199"/>
-      <c r="U137" s="199"/>
-      <c r="V137" s="199"/>
-      <c r="W137" s="199"/>
+      <c r="R137" s="201"/>
+      <c r="S137" s="201"/>
+      <c r="T137" s="201"/>
+      <c r="U137" s="201"/>
+      <c r="V137" s="201"/>
+      <c r="W137" s="201"/>
       <c r="Z137" s="86"/>
       <c r="AB137">
         <f t="shared" si="7"/>
@@ -28208,12 +28200,12 @@
         <f t="shared" si="6"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R138" s="199"/>
-      <c r="S138" s="199"/>
-      <c r="T138" s="199"/>
-      <c r="U138" s="199"/>
-      <c r="V138" s="199"/>
-      <c r="W138" s="199"/>
+      <c r="R138" s="201"/>
+      <c r="S138" s="201"/>
+      <c r="T138" s="201"/>
+      <c r="U138" s="201"/>
+      <c r="V138" s="201"/>
+      <c r="W138" s="201"/>
       <c r="Z138" s="86"/>
       <c r="AB138">
         <f t="shared" si="7"/>
@@ -28257,9 +28249,9 @@
         <f t="shared" si="6"/>
         <v>5.4166666666666669E-2</v>
       </c>
-      <c r="R139" s="199"/>
-      <c r="S139" s="199"/>
-      <c r="T139" s="199"/>
+      <c r="R139" s="201"/>
+      <c r="S139" s="201"/>
+      <c r="T139" s="201"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
       <c r="W139" s="6"/>
@@ -28307,12 +28299,12 @@
         <f t="shared" si="6"/>
         <v>0.17692307692307691</v>
       </c>
-      <c r="R140" s="199"/>
-      <c r="S140" s="199"/>
-      <c r="T140" s="199"/>
-      <c r="U140" s="199"/>
-      <c r="V140" s="199"/>
-      <c r="W140" s="199"/>
+      <c r="R140" s="201"/>
+      <c r="S140" s="201"/>
+      <c r="T140" s="201"/>
+      <c r="U140" s="201"/>
+      <c r="V140" s="201"/>
+      <c r="W140" s="201"/>
       <c r="Z140" s="86"/>
       <c r="AB140">
         <f t="shared" si="7"/>
@@ -28356,12 +28348,12 @@
         <f t="shared" si="6"/>
         <v>2.3076923076923075E-2</v>
       </c>
-      <c r="R141" s="199"/>
-      <c r="S141" s="199"/>
-      <c r="T141" s="199"/>
-      <c r="U141" s="199"/>
-      <c r="V141" s="199"/>
-      <c r="W141" s="199"/>
+      <c r="R141" s="201"/>
+      <c r="S141" s="201"/>
+      <c r="T141" s="201"/>
+      <c r="U141" s="201"/>
+      <c r="V141" s="201"/>
+      <c r="W141" s="201"/>
       <c r="Z141" s="86"/>
       <c r="AB141">
         <f t="shared" si="7"/>
@@ -28405,9 +28397,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R142" s="199"/>
-      <c r="S142" s="199"/>
-      <c r="T142" s="199"/>
+      <c r="R142" s="201"/>
+      <c r="S142" s="201"/>
+      <c r="T142" s="201"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
       <c r="W142" s="6"/>
@@ -28454,12 +28446,12 @@
         <f t="shared" si="6"/>
         <v>8.1818181818181804E-2</v>
       </c>
-      <c r="R143" s="199"/>
-      <c r="S143" s="199"/>
-      <c r="T143" s="199"/>
-      <c r="U143" s="199"/>
-      <c r="V143" s="199"/>
-      <c r="W143" s="199"/>
+      <c r="R143" s="201"/>
+      <c r="S143" s="201"/>
+      <c r="T143" s="201"/>
+      <c r="U143" s="201"/>
+      <c r="V143" s="201"/>
+      <c r="W143" s="201"/>
       <c r="Z143" s="86"/>
       <c r="AB143">
         <f t="shared" si="7"/>
@@ -28503,12 +28495,12 @@
         <f t="shared" si="6"/>
         <v>2.7272727272727271E-2</v>
       </c>
-      <c r="R144" s="199"/>
-      <c r="S144" s="199"/>
-      <c r="T144" s="199"/>
-      <c r="U144" s="199"/>
-      <c r="V144" s="199"/>
-      <c r="W144" s="199"/>
+      <c r="R144" s="201"/>
+      <c r="S144" s="201"/>
+      <c r="T144" s="201"/>
+      <c r="U144" s="201"/>
+      <c r="V144" s="201"/>
+      <c r="W144" s="201"/>
       <c r="Z144" s="86"/>
       <c r="AB144">
         <f t="shared" si="7"/>
@@ -28552,9 +28544,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R145" s="199"/>
-      <c r="S145" s="199"/>
-      <c r="T145" s="199"/>
+      <c r="R145" s="201"/>
+      <c r="S145" s="201"/>
+      <c r="T145" s="201"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
       <c r="W145" s="6"/>
@@ -28601,12 +28593,12 @@
         <f t="shared" si="6"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="R146" s="199"/>
-      <c r="S146" s="199"/>
-      <c r="T146" s="199"/>
-      <c r="U146" s="199"/>
-      <c r="V146" s="199"/>
-      <c r="W146" s="199"/>
+      <c r="R146" s="201"/>
+      <c r="S146" s="201"/>
+      <c r="T146" s="201"/>
+      <c r="U146" s="201"/>
+      <c r="V146" s="201"/>
+      <c r="W146" s="201"/>
       <c r="Z146" s="86"/>
       <c r="AB146">
         <f t="shared" si="7"/>
@@ -28650,12 +28642,12 @@
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="R147" s="199"/>
-      <c r="S147" s="199"/>
-      <c r="T147" s="199"/>
-      <c r="U147" s="199"/>
-      <c r="V147" s="199"/>
-      <c r="W147" s="199"/>
+      <c r="R147" s="201"/>
+      <c r="S147" s="201"/>
+      <c r="T147" s="201"/>
+      <c r="U147" s="201"/>
+      <c r="V147" s="201"/>
+      <c r="W147" s="201"/>
       <c r="Z147" s="86"/>
       <c r="AB147">
         <f t="shared" si="7"/>
@@ -28699,9 +28691,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R148" s="199"/>
-      <c r="S148" s="199"/>
-      <c r="T148" s="199"/>
+      <c r="R148" s="201"/>
+      <c r="S148" s="201"/>
+      <c r="T148" s="201"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
       <c r="W148" s="6"/>
@@ -28748,12 +28740,12 @@
         <f t="shared" si="6"/>
         <v>0.26818181818181819</v>
       </c>
-      <c r="R149" s="199"/>
-      <c r="S149" s="199"/>
-      <c r="T149" s="199"/>
-      <c r="U149" s="199"/>
-      <c r="V149" s="199"/>
-      <c r="W149" s="199"/>
+      <c r="R149" s="201"/>
+      <c r="S149" s="201"/>
+      <c r="T149" s="201"/>
+      <c r="U149" s="201"/>
+      <c r="V149" s="201"/>
+      <c r="W149" s="201"/>
       <c r="Z149" s="86"/>
       <c r="AB149">
         <f t="shared" si="7"/>
@@ -28797,12 +28789,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R150" s="199"/>
-      <c r="S150" s="199"/>
-      <c r="T150" s="199"/>
-      <c r="U150" s="199"/>
-      <c r="V150" s="199"/>
-      <c r="W150" s="199"/>
+      <c r="R150" s="201"/>
+      <c r="S150" s="201"/>
+      <c r="T150" s="201"/>
+      <c r="U150" s="201"/>
+      <c r="V150" s="201"/>
+      <c r="W150" s="201"/>
       <c r="Z150" s="86"/>
       <c r="AB150">
         <f t="shared" si="7"/>
@@ -31019,7 +31011,7 @@
       <c r="A208" s="88"/>
     </row>
     <row r="209" spans="1:204" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="219" t="s">
+      <c r="A209" s="203" t="s">
         <v>234</v>
       </c>
       <c r="B209" s="99" t="str">
@@ -31629,7 +31621,7 @@
       </c>
     </row>
     <row r="210" spans="1:204" x14ac:dyDescent="0.25">
-      <c r="A210" s="220"/>
+      <c r="A210" s="204"/>
       <c r="B210" s="1" t="str" cm="1">
         <f t="array" ref="B210">IFERROR(INDEX($A$6:$A$100, MATCH(1,(B6:B100=SMALL(B6:B100,1))*(COUNTIF(B209, $A$6:$A$100)=0),0)), "")</f>
         <v/>
@@ -32237,7 +32229,7 @@
       </c>
     </row>
     <row r="211" spans="1:204" s="98" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="221"/>
+      <c r="A211" s="205"/>
       <c r="B211" s="97" t="str" cm="1">
         <f t="array" ref="B211">IFERROR(INDEX($A$6:$A$100, MATCH(1,(B6:B100=SMALL(B6:B100,1))*(COUNTIF(B209:B210, $A$6:$A$100)=0),0)), "")</f>
         <v/>
@@ -32845,7 +32837,7 @@
       </c>
     </row>
     <row r="212" spans="1:204" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="222" t="s">
+      <c r="A212" s="206" t="s">
         <v>235</v>
       </c>
       <c r="B212" s="1" t="str" cm="1">
@@ -33455,7 +33447,7 @@
       </c>
     </row>
     <row r="213" spans="1:204" x14ac:dyDescent="0.25">
-      <c r="A213" s="223"/>
+      <c r="A213" s="207"/>
       <c r="B213" s="1" t="str" cm="1">
         <f t="array" ref="B213">IFERROR(IF(SMALL(B6:B100,2)&lt;=$A$214*SMALL(B6:B100,1),IFERROR(INDEX($A$6:$A$100, MATCH(1,(B6:B100=SMALL(B6:B100,2))*(COUNTIF(B209:B212, $A$6:$A$100)=0),0)), ""),""),"")</f>
         <v/>
@@ -38717,6 +38709,207 @@
     </row>
   </sheetData>
   <mergeCells count="225">
+    <mergeCell ref="EI1:ES1"/>
+    <mergeCell ref="EI4:ES4"/>
+    <mergeCell ref="AJ133:AL133"/>
+    <mergeCell ref="AJ134:AL134"/>
+    <mergeCell ref="AM134:AO134"/>
+    <mergeCell ref="AJ135:AL135"/>
+    <mergeCell ref="AM135:AO135"/>
+    <mergeCell ref="AJ130:AL130"/>
+    <mergeCell ref="AJ131:AL131"/>
+    <mergeCell ref="AM131:AO131"/>
+    <mergeCell ref="AJ132:AL132"/>
+    <mergeCell ref="AM132:AO132"/>
+    <mergeCell ref="AJ127:AL127"/>
+    <mergeCell ref="AJ128:AL128"/>
+    <mergeCell ref="AM128:AO128"/>
+    <mergeCell ref="AJ129:AL129"/>
+    <mergeCell ref="AM129:AO129"/>
+    <mergeCell ref="AJ124:AL124"/>
+    <mergeCell ref="AJ125:AL125"/>
+    <mergeCell ref="AM125:AO125"/>
+    <mergeCell ref="AJ126:AL126"/>
+    <mergeCell ref="AM126:AO126"/>
+    <mergeCell ref="AJ121:AL121"/>
+    <mergeCell ref="AM122:AO122"/>
+    <mergeCell ref="AJ123:AL123"/>
+    <mergeCell ref="AM123:AO123"/>
+    <mergeCell ref="AJ118:AL118"/>
+    <mergeCell ref="AJ119:AL119"/>
+    <mergeCell ref="AM119:AO119"/>
+    <mergeCell ref="AJ120:AL120"/>
+    <mergeCell ref="AM120:AO120"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="U1:AE1"/>
+    <mergeCell ref="U116:W116"/>
+    <mergeCell ref="U117:W117"/>
+    <mergeCell ref="R115:T115"/>
+    <mergeCell ref="R116:T116"/>
+    <mergeCell ref="R117:T117"/>
+    <mergeCell ref="R118:T118"/>
+    <mergeCell ref="R110:T110"/>
+    <mergeCell ref="R111:T111"/>
+    <mergeCell ref="R112:T112"/>
+    <mergeCell ref="R113:T113"/>
+    <mergeCell ref="R114:T114"/>
+    <mergeCell ref="U110:W110"/>
+    <mergeCell ref="U111:W111"/>
+    <mergeCell ref="U113:W113"/>
+    <mergeCell ref="AQ1:BA1"/>
+    <mergeCell ref="AA102:AD105"/>
+    <mergeCell ref="AE103:AG105"/>
+    <mergeCell ref="AI104:AI105"/>
+    <mergeCell ref="AJ104:AL105"/>
+    <mergeCell ref="U107:W107"/>
+    <mergeCell ref="U108:W108"/>
+    <mergeCell ref="AF2:AP2"/>
+    <mergeCell ref="AF3:AP3"/>
+    <mergeCell ref="AQ2:BA2"/>
+    <mergeCell ref="AQ3:BA3"/>
+    <mergeCell ref="U2:AE2"/>
+    <mergeCell ref="U3:AE3"/>
+    <mergeCell ref="R148:T148"/>
+    <mergeCell ref="R149:T149"/>
+    <mergeCell ref="U149:W149"/>
+    <mergeCell ref="R150:T150"/>
+    <mergeCell ref="U150:W150"/>
+    <mergeCell ref="R145:T145"/>
+    <mergeCell ref="R146:T146"/>
+    <mergeCell ref="U146:W146"/>
+    <mergeCell ref="R147:T147"/>
+    <mergeCell ref="U147:W147"/>
+    <mergeCell ref="R142:T142"/>
+    <mergeCell ref="R143:T143"/>
+    <mergeCell ref="U143:W143"/>
+    <mergeCell ref="R144:T144"/>
+    <mergeCell ref="U144:W144"/>
+    <mergeCell ref="R139:T139"/>
+    <mergeCell ref="R140:T140"/>
+    <mergeCell ref="U140:W140"/>
+    <mergeCell ref="R141:T141"/>
+    <mergeCell ref="U141:W141"/>
+    <mergeCell ref="R136:T136"/>
+    <mergeCell ref="R137:T137"/>
+    <mergeCell ref="U137:W137"/>
+    <mergeCell ref="R138:T138"/>
+    <mergeCell ref="U138:W138"/>
+    <mergeCell ref="R133:T133"/>
+    <mergeCell ref="R134:T134"/>
+    <mergeCell ref="U134:W134"/>
+    <mergeCell ref="R135:T135"/>
+    <mergeCell ref="U135:W135"/>
+    <mergeCell ref="R131:T131"/>
+    <mergeCell ref="U131:W131"/>
+    <mergeCell ref="R132:T132"/>
+    <mergeCell ref="U132:W132"/>
+    <mergeCell ref="EI3:EO3"/>
+    <mergeCell ref="R127:T127"/>
+    <mergeCell ref="R128:T128"/>
+    <mergeCell ref="U128:W128"/>
+    <mergeCell ref="R129:T129"/>
+    <mergeCell ref="U129:W129"/>
+    <mergeCell ref="AJ106:AL106"/>
+    <mergeCell ref="AJ107:AL107"/>
+    <mergeCell ref="AM107:AO107"/>
+    <mergeCell ref="AJ108:AL108"/>
+    <mergeCell ref="AM108:AO108"/>
+    <mergeCell ref="AJ109:AL109"/>
+    <mergeCell ref="AJ110:AL110"/>
+    <mergeCell ref="AM110:AO110"/>
+    <mergeCell ref="AJ111:AL111"/>
+    <mergeCell ref="AM111:AO111"/>
+    <mergeCell ref="EG4:EH4"/>
+    <mergeCell ref="DV4:DZ4"/>
+    <mergeCell ref="ED4:EF4"/>
+    <mergeCell ref="R104:T105"/>
+    <mergeCell ref="DN4:DO4"/>
+    <mergeCell ref="DP4:DQ4"/>
+    <mergeCell ref="CX4:CY4"/>
+    <mergeCell ref="CZ4:DA4"/>
+    <mergeCell ref="DB4:DC4"/>
+    <mergeCell ref="DD4:DE4"/>
+    <mergeCell ref="DF4:DG4"/>
+    <mergeCell ref="DV2:EH2"/>
+    <mergeCell ref="R130:T130"/>
+    <mergeCell ref="R106:T106"/>
+    <mergeCell ref="R107:T107"/>
+    <mergeCell ref="R108:T108"/>
+    <mergeCell ref="R109:T109"/>
+    <mergeCell ref="AJ115:AL115"/>
+    <mergeCell ref="AJ116:AL116"/>
+    <mergeCell ref="AM116:AO116"/>
+    <mergeCell ref="AJ117:AL117"/>
+    <mergeCell ref="AM117:AO117"/>
+    <mergeCell ref="AJ112:AL112"/>
+    <mergeCell ref="AJ113:AL113"/>
+    <mergeCell ref="AM113:AO113"/>
+    <mergeCell ref="AJ114:AL114"/>
+    <mergeCell ref="AM114:AO114"/>
+    <mergeCell ref="AJ122:AL122"/>
+    <mergeCell ref="U125:W125"/>
+    <mergeCell ref="U126:W126"/>
+    <mergeCell ref="U119:W119"/>
+    <mergeCell ref="U120:W120"/>
+    <mergeCell ref="U122:W122"/>
+    <mergeCell ref="U123:W123"/>
+    <mergeCell ref="R120:T120"/>
+    <mergeCell ref="R121:T121"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="R119:T119"/>
+    <mergeCell ref="R126:T126"/>
+    <mergeCell ref="U114:W114"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="J2:T2"/>
+    <mergeCell ref="J3:T3"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="K103:O103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="M104:N105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="R124:T124"/>
+    <mergeCell ref="R125:T125"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BB2:BM2"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CC4"/>
+    <mergeCell ref="BN2:CC2"/>
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CD4:CE4"/>
+    <mergeCell ref="CF4:CG4"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BQ4"/>
     <mergeCell ref="DV1:EH1"/>
     <mergeCell ref="CR4:CS4"/>
     <mergeCell ref="CT3:CW3"/>
@@ -38741,207 +38934,6 @@
     <mergeCell ref="DH4:DI4"/>
     <mergeCell ref="DJ4:DK4"/>
     <mergeCell ref="DL4:DM4"/>
-    <mergeCell ref="BZ3:CC3"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CC4"/>
-    <mergeCell ref="BN2:CC2"/>
-    <mergeCell ref="CD3:CG3"/>
-    <mergeCell ref="CD4:CE4"/>
-    <mergeCell ref="CF4:CG4"/>
-    <mergeCell ref="BR3:BU3"/>
-    <mergeCell ref="BV3:BY3"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BB2:BM2"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="U114:W114"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="I105:K105"/>
-    <mergeCell ref="J2:T2"/>
-    <mergeCell ref="J3:T3"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="K103:O103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="M104:N105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="R124:T124"/>
-    <mergeCell ref="R125:T125"/>
-    <mergeCell ref="U125:W125"/>
-    <mergeCell ref="U126:W126"/>
-    <mergeCell ref="U119:W119"/>
-    <mergeCell ref="U120:W120"/>
-    <mergeCell ref="U122:W122"/>
-    <mergeCell ref="U123:W123"/>
-    <mergeCell ref="R120:T120"/>
-    <mergeCell ref="R121:T121"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="R123:T123"/>
-    <mergeCell ref="R119:T119"/>
-    <mergeCell ref="R126:T126"/>
-    <mergeCell ref="DN4:DO4"/>
-    <mergeCell ref="DP4:DQ4"/>
-    <mergeCell ref="CX4:CY4"/>
-    <mergeCell ref="CZ4:DA4"/>
-    <mergeCell ref="DB4:DC4"/>
-    <mergeCell ref="DD4:DE4"/>
-    <mergeCell ref="DF4:DG4"/>
-    <mergeCell ref="DV2:EH2"/>
-    <mergeCell ref="R130:T130"/>
-    <mergeCell ref="R106:T106"/>
-    <mergeCell ref="R107:T107"/>
-    <mergeCell ref="R108:T108"/>
-    <mergeCell ref="R109:T109"/>
-    <mergeCell ref="AJ115:AL115"/>
-    <mergeCell ref="AJ116:AL116"/>
-    <mergeCell ref="AM116:AO116"/>
-    <mergeCell ref="AJ117:AL117"/>
-    <mergeCell ref="AM117:AO117"/>
-    <mergeCell ref="AJ112:AL112"/>
-    <mergeCell ref="AJ113:AL113"/>
-    <mergeCell ref="AM113:AO113"/>
-    <mergeCell ref="AJ114:AL114"/>
-    <mergeCell ref="AM114:AO114"/>
-    <mergeCell ref="AJ122:AL122"/>
-    <mergeCell ref="R131:T131"/>
-    <mergeCell ref="U131:W131"/>
-    <mergeCell ref="R132:T132"/>
-    <mergeCell ref="U132:W132"/>
-    <mergeCell ref="EI3:EO3"/>
-    <mergeCell ref="R127:T127"/>
-    <mergeCell ref="R128:T128"/>
-    <mergeCell ref="U128:W128"/>
-    <mergeCell ref="R129:T129"/>
-    <mergeCell ref="U129:W129"/>
-    <mergeCell ref="AJ106:AL106"/>
-    <mergeCell ref="AJ107:AL107"/>
-    <mergeCell ref="AM107:AO107"/>
-    <mergeCell ref="AJ108:AL108"/>
-    <mergeCell ref="AM108:AO108"/>
-    <mergeCell ref="AJ109:AL109"/>
-    <mergeCell ref="AJ110:AL110"/>
-    <mergeCell ref="AM110:AO110"/>
-    <mergeCell ref="AJ111:AL111"/>
-    <mergeCell ref="AM111:AO111"/>
-    <mergeCell ref="EG4:EH4"/>
-    <mergeCell ref="DV4:DZ4"/>
-    <mergeCell ref="ED4:EF4"/>
-    <mergeCell ref="R104:T105"/>
-    <mergeCell ref="R136:T136"/>
-    <mergeCell ref="R137:T137"/>
-    <mergeCell ref="U137:W137"/>
-    <mergeCell ref="R138:T138"/>
-    <mergeCell ref="U138:W138"/>
-    <mergeCell ref="R133:T133"/>
-    <mergeCell ref="R134:T134"/>
-    <mergeCell ref="U134:W134"/>
-    <mergeCell ref="R135:T135"/>
-    <mergeCell ref="U135:W135"/>
-    <mergeCell ref="R142:T142"/>
-    <mergeCell ref="R143:T143"/>
-    <mergeCell ref="U143:W143"/>
-    <mergeCell ref="R144:T144"/>
-    <mergeCell ref="U144:W144"/>
-    <mergeCell ref="R139:T139"/>
-    <mergeCell ref="R140:T140"/>
-    <mergeCell ref="U140:W140"/>
-    <mergeCell ref="R141:T141"/>
-    <mergeCell ref="U141:W141"/>
-    <mergeCell ref="R148:T148"/>
-    <mergeCell ref="R149:T149"/>
-    <mergeCell ref="U149:W149"/>
-    <mergeCell ref="R150:T150"/>
-    <mergeCell ref="U150:W150"/>
-    <mergeCell ref="R145:T145"/>
-    <mergeCell ref="R146:T146"/>
-    <mergeCell ref="U146:W146"/>
-    <mergeCell ref="R147:T147"/>
-    <mergeCell ref="U147:W147"/>
-    <mergeCell ref="AQ1:BA1"/>
-    <mergeCell ref="AA102:AD105"/>
-    <mergeCell ref="AE103:AG105"/>
-    <mergeCell ref="AI104:AI105"/>
-    <mergeCell ref="AJ104:AL105"/>
-    <mergeCell ref="U107:W107"/>
-    <mergeCell ref="U108:W108"/>
-    <mergeCell ref="AF2:AP2"/>
-    <mergeCell ref="AF3:AP3"/>
-    <mergeCell ref="AQ2:BA2"/>
-    <mergeCell ref="AQ3:BA3"/>
-    <mergeCell ref="U2:AE2"/>
-    <mergeCell ref="U3:AE3"/>
-    <mergeCell ref="AJ123:AL123"/>
-    <mergeCell ref="AM123:AO123"/>
-    <mergeCell ref="AJ118:AL118"/>
-    <mergeCell ref="AJ119:AL119"/>
-    <mergeCell ref="AM119:AO119"/>
-    <mergeCell ref="AJ120:AL120"/>
-    <mergeCell ref="AM120:AO120"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="U1:AE1"/>
-    <mergeCell ref="U116:W116"/>
-    <mergeCell ref="U117:W117"/>
-    <mergeCell ref="R115:T115"/>
-    <mergeCell ref="R116:T116"/>
-    <mergeCell ref="R117:T117"/>
-    <mergeCell ref="R118:T118"/>
-    <mergeCell ref="R110:T110"/>
-    <mergeCell ref="R111:T111"/>
-    <mergeCell ref="R112:T112"/>
-    <mergeCell ref="R113:T113"/>
-    <mergeCell ref="R114:T114"/>
-    <mergeCell ref="U110:W110"/>
-    <mergeCell ref="U111:W111"/>
-    <mergeCell ref="U113:W113"/>
-    <mergeCell ref="EI1:ES1"/>
-    <mergeCell ref="EI4:ES4"/>
-    <mergeCell ref="AJ133:AL133"/>
-    <mergeCell ref="AJ134:AL134"/>
-    <mergeCell ref="AM134:AO134"/>
-    <mergeCell ref="AJ135:AL135"/>
-    <mergeCell ref="AM135:AO135"/>
-    <mergeCell ref="AJ130:AL130"/>
-    <mergeCell ref="AJ131:AL131"/>
-    <mergeCell ref="AM131:AO131"/>
-    <mergeCell ref="AJ132:AL132"/>
-    <mergeCell ref="AM132:AO132"/>
-    <mergeCell ref="AJ127:AL127"/>
-    <mergeCell ref="AJ128:AL128"/>
-    <mergeCell ref="AM128:AO128"/>
-    <mergeCell ref="AJ129:AL129"/>
-    <mergeCell ref="AM129:AO129"/>
-    <mergeCell ref="AJ124:AL124"/>
-    <mergeCell ref="AJ125:AL125"/>
-    <mergeCell ref="AM125:AO125"/>
-    <mergeCell ref="AJ126:AL126"/>
-    <mergeCell ref="AM126:AO126"/>
-    <mergeCell ref="AJ121:AL121"/>
-    <mergeCell ref="AM122:AO122"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -39735,7 +39727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849C16DD-5DE5-42C6-A3F9-E3F83B747A6A}">
   <dimension ref="A2:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
